--- a/PadControl/Assets/对接协议/设备对接(带指令).xlsx
+++ b/PadControl/Assets/对接协议/设备对接(带指令).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12525" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="网络设备信息" sheetId="3" r:id="rId1"/>
@@ -17,25 +17,12 @@
     <sheet name="序厅LED大屏开关" sheetId="12" r:id="rId8"/>
     <sheet name="序厅电动门反馈协议" sheetId="13" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="281">
   <si>
     <t>名称</t>
   </si>
@@ -142,7 +129,7 @@
     <t>电脑IP</t>
   </si>
   <si>
-    <t>新增投影</t>
+    <t>大门右屏</t>
   </si>
   <si>
     <t>192.168.3.10</t>
@@ -238,9 +225,21 @@
     <t>展厅区域灯光插座</t>
   </si>
   <si>
+    <t>电波传音</t>
+  </si>
+  <si>
+    <t>全息</t>
+  </si>
+  <si>
     <t>IP：192.168.3.9 端口：20001</t>
   </si>
   <si>
+    <t>密电风暴</t>
+  </si>
+  <si>
+    <t>无线电频谱</t>
+  </si>
+  <si>
     <t>协议参考A-2</t>
   </si>
   <si>
@@ -250,142 +249,505 @@
     <t>路数</t>
   </si>
   <si>
+    <t>指令开 不带crc</t>
+  </si>
+  <si>
+    <t>指令关</t>
+  </si>
+  <si>
+    <t>大门</t>
+  </si>
+  <si>
+    <t>序厅</t>
+  </si>
+  <si>
+    <t>诞始</t>
+  </si>
+  <si>
+    <t>循迹</t>
+  </si>
+  <si>
+    <t>铸魂</t>
+  </si>
+  <si>
+    <t>安全</t>
+  </si>
+  <si>
+    <t>走廊</t>
+  </si>
+  <si>
+    <t>筑基</t>
+  </si>
+  <si>
     <t>第一回路</t>
   </si>
   <si>
     <t>强策筒灯1</t>
   </si>
   <si>
+    <t>0B 06 00 03 00 01</t>
+  </si>
+  <si>
+    <t>0B 06 00 03 00 00</t>
+  </si>
+  <si>
     <t>第二回路</t>
   </si>
   <si>
     <t>强策射灯</t>
   </si>
   <si>
+    <t>0B 06 00 04 00 01</t>
+  </si>
+  <si>
+    <t>0B 06 00 04 00 00</t>
+  </si>
+  <si>
     <t>第三回路</t>
   </si>
   <si>
+    <t>0B 06 00 05 00 01</t>
+  </si>
+  <si>
+    <t>0B 06 00 05 00 00</t>
+  </si>
+  <si>
     <t>第四回路</t>
   </si>
   <si>
     <t>强策筒灯2</t>
   </si>
   <si>
+    <t>0B 06 00 06 00 01</t>
+  </si>
+  <si>
+    <t>0B 06 00 06 00 00</t>
+  </si>
+  <si>
     <t>第五回路</t>
   </si>
   <si>
     <t>逐梦射灯</t>
   </si>
   <si>
+    <t>0B 06 00 07 00 01</t>
+  </si>
+  <si>
+    <t>0B 06 00 07 00 00</t>
+  </si>
+  <si>
     <t>第六回路</t>
   </si>
   <si>
     <t>铸魂射灯</t>
   </si>
   <si>
+    <t>0B 06 00 08 00 01</t>
+  </si>
+  <si>
+    <t>0B 06 00 08 00 00</t>
+  </si>
+  <si>
     <t>铸魂筒灯</t>
   </si>
   <si>
+    <t>0C 06 00 03 00 01</t>
+  </si>
+  <si>
+    <t>0C 06 00 03 00 00</t>
+  </si>
+  <si>
     <t>筑基射灯</t>
   </si>
   <si>
+    <t>0C 06 00 04 00 01</t>
+  </si>
+  <si>
+    <t>0C 06 00 04 00 00</t>
+  </si>
+  <si>
     <t>深空灯带</t>
   </si>
   <si>
+    <t>0C 06 00 05 00 01</t>
+  </si>
+  <si>
+    <t>0C 06 00 05 00 00</t>
+  </si>
+  <si>
     <t>时光回响</t>
   </si>
   <si>
+    <t>0C 06 00 06 00 01</t>
+  </si>
+  <si>
+    <t>0C 06 00 06 00 00</t>
+  </si>
+  <si>
     <t>筑基筒灯</t>
   </si>
   <si>
+    <t>0C 06 00 07 00 01</t>
+  </si>
+  <si>
+    <t>0C 06 00 07 00 00</t>
+  </si>
+  <si>
     <t>循迹射灯</t>
   </si>
   <si>
+    <t>0C 06 00 08 00 01</t>
+  </si>
+  <si>
+    <t>0C 06 00 08 00 00</t>
+  </si>
+  <si>
+    <t>0D 06 00 03 00 01</t>
+  </si>
+  <si>
+    <t>0D 06 00 03 00 00</t>
+  </si>
+  <si>
+    <t>0D 06 00 04 00 01</t>
+  </si>
+  <si>
+    <t>0D 06 00 04 00 00</t>
+  </si>
+  <si>
     <t>逐梦筒灯</t>
   </si>
   <si>
+    <t>0D 06 00 05 00 01</t>
+  </si>
+  <si>
+    <t>0D 06 00 05 00 00</t>
+  </si>
+  <si>
     <t>诞始筒灯</t>
   </si>
   <si>
+    <t>0D 06 00 06 00 01</t>
+  </si>
+  <si>
+    <t>0D 06 00 06 00 00</t>
+  </si>
+  <si>
     <t>循迹射灯1</t>
   </si>
   <si>
+    <t>0D 06 00 07 00 01</t>
+  </si>
+  <si>
+    <t>0D 06 00 07 00 00</t>
+  </si>
+  <si>
     <t>循迹筒灯2</t>
   </si>
   <si>
+    <t>0D 06 00 08 00 01</t>
+  </si>
+  <si>
+    <t>0D 06 00 08 00 00</t>
+  </si>
+  <si>
+    <t>0E 06 00 03 00 01</t>
+  </si>
+  <si>
+    <t>0E 06 00 03 00 00</t>
+  </si>
+  <si>
     <t>逐梦灯带</t>
   </si>
   <si>
+    <t>0E 06 00 04 00 01</t>
+  </si>
+  <si>
+    <t>0E 06 00 04 00 00</t>
+  </si>
+  <si>
+    <t>0E 06 00 05 00 01</t>
+  </si>
+  <si>
+    <t>0E 06 00 05 00 00</t>
+  </si>
+  <si>
     <t>诞始灯带</t>
   </si>
   <si>
+    <t>0E 06 00 06 00 01</t>
+  </si>
+  <si>
+    <t>0E 06 00 06 00 00</t>
+  </si>
+  <si>
     <t>序厅灯带</t>
   </si>
   <si>
+    <t>0E 06 00 07 00 01</t>
+  </si>
+  <si>
+    <t>0E 06 00 07 00 00</t>
+  </si>
+  <si>
     <t>诞始射灯</t>
   </si>
   <si>
+    <t>0E 06 00 08 00 01</t>
+  </si>
+  <si>
+    <t>0E 06 00 08 00 00</t>
+  </si>
+  <si>
     <t>序厅灯膜</t>
   </si>
   <si>
+    <t>0F 06 00 03 00 01</t>
+  </si>
+  <si>
+    <t>0F 06 00 03 00 00</t>
+  </si>
+  <si>
     <t>序厅射灯</t>
   </si>
   <si>
+    <t>0F 06 00 04 00 01</t>
+  </si>
+  <si>
+    <t>0F 06 00 04 00 00</t>
+  </si>
+  <si>
+    <t>0F 06 00 05 00 01</t>
+  </si>
+  <si>
+    <t>0F 06 00 05 00 00</t>
+  </si>
+  <si>
     <t>排风</t>
   </si>
   <si>
+    <t>0F 06 00 06 00 01</t>
+  </si>
+  <si>
+    <t>0F 06 00 06 00 00</t>
+  </si>
+  <si>
+    <t>0F 06 00 07 00 01</t>
+  </si>
+  <si>
+    <t>0F 06 00 07 00 00</t>
+  </si>
+  <si>
     <t>广播？</t>
   </si>
   <si>
+    <t>0F 06 00 08 00 01</t>
+  </si>
+  <si>
+    <t>0F 06 00 08 00 00</t>
+  </si>
+  <si>
     <t>序厅广告字</t>
   </si>
   <si>
+    <t>10 06 00 03 00 01</t>
+  </si>
+  <si>
+    <t>10 06 00 03 00 00</t>
+  </si>
+  <si>
+    <t>10 06 00 04 00 01</t>
+  </si>
+  <si>
+    <t>10 06 00 04 00 00</t>
+  </si>
+  <si>
+    <t>10 06 00 05 00 01</t>
+  </si>
+  <si>
+    <t>10 06 00 05 00 00</t>
+  </si>
+  <si>
+    <t>10 06 00 06 00 01</t>
+  </si>
+  <si>
+    <t>10 06 00 06 00 00</t>
+  </si>
+  <si>
     <t>铸魂广告</t>
   </si>
   <si>
+    <t>10 06 00 07 00 01</t>
+  </si>
+  <si>
+    <t>10 06 00 07 00 00</t>
+  </si>
+  <si>
+    <t>10 06 00 08 00 01</t>
+  </si>
+  <si>
+    <t>10 06 00 08 00 00</t>
+  </si>
+  <si>
     <t>序厅广告</t>
   </si>
   <si>
+    <t>11 06 00 03 00 01</t>
+  </si>
+  <si>
+    <t>11 06 00 03 00 00</t>
+  </si>
+  <si>
     <t>筑基灯带</t>
   </si>
   <si>
+    <t>11 06 00 04 00 01</t>
+  </si>
+  <si>
+    <t>11 06 00 04 00 00</t>
+  </si>
+  <si>
     <t>循迹诞始</t>
   </si>
   <si>
+    <t>11 06 00 05 00 01</t>
+  </si>
+  <si>
+    <t>11 06 00 05 00 00</t>
+  </si>
+  <si>
     <t>筑基广告</t>
   </si>
   <si>
+    <t>11 06 00 06 00 01</t>
+  </si>
+  <si>
+    <t>11 06 00 06 00 00</t>
+  </si>
+  <si>
     <t>深空广告</t>
   </si>
   <si>
+    <t>11 06 00 07 00 01</t>
+  </si>
+  <si>
+    <t>11 06 00 07 00 00</t>
+  </si>
+  <si>
     <t>强策广告</t>
   </si>
   <si>
+    <t>11 06 00 08 00 01</t>
+  </si>
+  <si>
+    <t>11 06 00 08 00 00</t>
+  </si>
+  <si>
     <t>循迹电视</t>
   </si>
   <si>
+    <t>12 06 00 03 00 01</t>
+  </si>
+  <si>
+    <t>12 06 00 03 00 00</t>
+  </si>
+  <si>
+    <t>12 06 00 04 00 01</t>
+  </si>
+  <si>
+    <t>12 06 00 04 00 00</t>
+  </si>
+  <si>
     <t>筑基插座</t>
   </si>
   <si>
+    <t>12 06 00 05 00 01</t>
+  </si>
+  <si>
+    <t>12 06 00 05 00 00</t>
+  </si>
+  <si>
     <t>深空插座</t>
   </si>
   <si>
+    <t>12 06 00 06 00 01</t>
+  </si>
+  <si>
+    <t>12 06 00 06 00 00</t>
+  </si>
+  <si>
     <t>投影插座</t>
   </si>
   <si>
+    <t>12 06 00 07 00 01</t>
+  </si>
+  <si>
+    <t>12 06 00 07 00 00</t>
+  </si>
+  <si>
     <t>铸魂电视</t>
   </si>
   <si>
+    <t>12 06 00 08 00 01</t>
+  </si>
+  <si>
+    <t>12 06 00 08 00 00</t>
+  </si>
+  <si>
     <t>诞始插座</t>
   </si>
   <si>
+    <t>13 06 00 03 00 01</t>
+  </si>
+  <si>
+    <t>13 06 00 03 00 00</t>
+  </si>
+  <si>
     <t>强策插座</t>
   </si>
   <si>
+    <t>13 06 00 04 00 01</t>
+  </si>
+  <si>
+    <t>13 06 00 04 00 00</t>
+  </si>
+  <si>
+    <t>13 06 00 05 00 01</t>
+  </si>
+  <si>
+    <t>13 06 00 05 00 00</t>
+  </si>
+  <si>
+    <t>13 06 00 06 00 01</t>
+  </si>
+  <si>
+    <t>13 06 00 06 00 00</t>
+  </si>
+  <si>
     <t>序厅插座</t>
   </si>
   <si>
+    <t>13 06 00 07 00 01</t>
+  </si>
+  <si>
+    <t>13 06 00 07 00 00</t>
+  </si>
+  <si>
+    <t>13 06 00 08 00 01</t>
+  </si>
+  <si>
+    <t>13 06 00 08 00 00</t>
+  </si>
+  <si>
     <t>ID需要转换16进制</t>
+  </si>
+  <si>
+    <t>开关IPNO</t>
+  </si>
+  <si>
+    <t>主机IPNO</t>
+  </si>
+  <si>
+    <t>平板IPNO</t>
   </si>
   <si>
     <t>办公区域域灯光插座</t>
@@ -508,14 +870,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,13 +889,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -571,7 +926,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -588,6 +964,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -627,21 +1011,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -692,34 +1061,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="44">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -741,6 +1089,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,25 +1136,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,7 +1178,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,19 +1208,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,12 +1256,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -878,37 +1268,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,19 +1286,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,12 +1305,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,6 +1403,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1089,21 +1446,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1160,152 +1502,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1357,15 +1699,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1387,131 +1723,104 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1813,8 +2122,8 @@
   <sheetPr/>
   <dimension ref="E6:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1825,17 +2134,17 @@
     <col min="8" max="8" width="26.2666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" s="57" customFormat="1" ht="26.5" customHeight="1" spans="5:8">
-      <c r="E6" s="58" t="s">
+    <row r="6" s="44" customFormat="1" ht="26.5" customHeight="1" spans="5:8">
+      <c r="E6" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="45" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1996,7 +2305,7 @@
   <dimension ref="F6:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:H8"/>
+      <selection activeCell="F6" sqref="F6:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2029,13 +2338,13 @@
       </c>
     </row>
     <row r="8" spans="6:8">
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="40" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2073,13 +2382,13 @@
       </c>
     </row>
     <row r="12" spans="6:8">
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="55" t="s">
+      <c r="H12" s="41" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2106,7 +2415,7 @@
       </c>
     </row>
     <row r="15" spans="7:7">
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="42" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2121,8 +2430,8 @@
   <sheetPr/>
   <dimension ref="E1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -2160,7 +2469,7 @@
       </c>
     </row>
     <row r="6" spans="6:6">
-      <c r="F6" s="53"/>
+      <c r="F6" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2176,10 +2485,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E1:I64"/>
+  <dimension ref="D1:T73"/>
   <sheetViews>
-    <sheetView topLeftCell="C21" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView tabSelected="1" topLeftCell="C36" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66:E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2187,703 +2496,1359 @@
     <col min="5" max="5" width="13.8166666666667" customWidth="1"/>
     <col min="6" max="6" width="19.1833333333333" customWidth="1"/>
     <col min="7" max="7" width="19.725" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
+    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:14">
       <c r="E1" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
+      <c r="M1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:14">
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
+      <c r="M2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="20" customHeight="1" spans="5:14">
       <c r="E3" s="10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="5:8">
+      <c r="M3" s="1">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="5:20">
       <c r="E4" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="5:9">
+      <c r="H4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" t="s">
+        <v>82</v>
+      </c>
+      <c r="S4" t="s">
+        <v>83</v>
+      </c>
+      <c r="T4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="5:16">
       <c r="E5" s="16">
         <v>11</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="52"/>
-    </row>
-    <row r="6" spans="5:9">
+        <v>85</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="5:16">
       <c r="E6" s="16">
         <v>11</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="52"/>
-    </row>
-    <row r="7" spans="5:8">
+        <v>89</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="5:9">
       <c r="E7" s="4">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="5:9">
+        <v>93</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="5:16">
       <c r="E8" s="16">
         <v>11</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="52"/>
-    </row>
-    <row r="9" spans="5:9">
-      <c r="E9" s="19">
+        <v>96</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15">
+      <c r="E9" s="21">
         <v>11</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="52"/>
-    </row>
-    <row r="10" spans="5:9">
-      <c r="E10" s="21">
+      <c r="F9" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="5:14">
+      <c r="E10" s="23">
         <v>11</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="52"/>
-    </row>
-    <row r="11" spans="5:9">
-      <c r="E11" s="21">
+      <c r="F10" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="5:14">
+      <c r="E11" s="23">
         <v>12</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="52"/>
-    </row>
-    <row r="12" spans="5:9">
-      <c r="E12" s="23">
+      <c r="F11" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="5:20">
+      <c r="E12" s="25">
         <v>12</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="52"/>
+      <c r="F12" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="5:9">
       <c r="E13" s="4">
         <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="52"/>
-    </row>
-    <row r="14" spans="5:8">
+        <v>93</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9">
       <c r="E14" s="4">
         <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="5:9">
-      <c r="E15" s="23">
+        <v>96</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="5:20">
+      <c r="E15" s="25">
         <v>12</v>
       </c>
-      <c r="F15" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="52"/>
-    </row>
-    <row r="16" spans="5:9">
-      <c r="E16" s="25">
+      <c r="F15" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="5:13">
+      <c r="E16" s="27">
         <v>12</v>
       </c>
-      <c r="F16" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="52"/>
-    </row>
-    <row r="17" spans="5:8">
+      <c r="F16" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9">
       <c r="E17" s="4">
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="5:9">
-      <c r="E18" s="19">
+        <v>85</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15">
+      <c r="E18" s="21">
         <v>13</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="52"/>
-    </row>
-    <row r="19" spans="5:9">
-      <c r="E19" s="19">
+      <c r="F18" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15">
+      <c r="E19" s="21">
         <v>13</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="52"/>
-    </row>
-    <row r="20" spans="5:9">
-      <c r="E20" s="27">
+      <c r="F19" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12">
+      <c r="E20" s="29">
         <v>13</v>
       </c>
-      <c r="F20" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="29" t="s">
+      <c r="F20" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13">
+      <c r="E21" s="27">
+        <v>13</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13">
+      <c r="E22" s="27">
+        <v>13</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="5:15">
+      <c r="E23" s="21">
+        <v>14</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="5:15">
+      <c r="E24" s="21">
+        <v>14</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I20" s="52"/>
-    </row>
-    <row r="21" spans="5:9">
-      <c r="E21" s="25">
-        <v>13</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="I21" s="52"/>
-    </row>
-    <row r="22" spans="5:9">
-      <c r="E22" s="25">
-        <v>13</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="I22" s="52"/>
-    </row>
-    <row r="23" spans="5:9">
-      <c r="E23" s="19">
+      <c r="G24" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9">
+      <c r="E25" s="27">
         <v>14</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="I23" s="52"/>
-    </row>
-    <row r="24" spans="5:9">
-      <c r="E24" s="19">
+      <c r="F25" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12">
+      <c r="E26" s="29">
         <v>14</v>
       </c>
-      <c r="F24" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="I24" s="52"/>
-    </row>
-    <row r="25" spans="5:9">
-      <c r="E25" s="25">
-        <v>14</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="I25" s="52"/>
-    </row>
-    <row r="26" spans="5:9">
-      <c r="E26" s="27">
-        <v>14</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="I26" s="52"/>
-    </row>
-    <row r="27" spans="5:9">
+      <c r="F26" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11">
       <c r="E27" s="14">
         <v>14</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" s="52"/>
-    </row>
-    <row r="28" spans="5:9">
-      <c r="E28" s="27">
+        <v>100</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12">
+      <c r="E28" s="29">
         <v>14</v>
       </c>
-      <c r="F28" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="I28" s="52"/>
-    </row>
-    <row r="29" spans="5:9">
+      <c r="F28" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11">
       <c r="E29" s="14">
         <v>15</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="I29" s="52"/>
-    </row>
-    <row r="30" spans="5:9">
+        <v>85</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11">
       <c r="E30" s="14">
         <v>15</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="I30" s="52"/>
-    </row>
-    <row r="31" spans="5:9">
+        <v>89</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11">
       <c r="E31" s="14">
         <v>15</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="I31" s="52"/>
-    </row>
-    <row r="32" spans="5:7">
+        <v>93</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9">
       <c r="E32" s="4">
         <v>15</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" s="35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="5:7">
+        <v>96</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9">
       <c r="E33" s="4">
         <v>15</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33" s="35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="5:7">
+        <v>100</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9">
       <c r="E34" s="4">
         <v>15</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G34" s="35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="5:9">
+        <v>104</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="5:11">
       <c r="E35" s="14">
         <v>16</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="I35" s="52"/>
-    </row>
-    <row r="36" spans="5:7">
+        <v>85</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9">
       <c r="E36" s="4">
         <v>16</v>
       </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="36"/>
-    </row>
-    <row r="37" spans="5:7">
+      <c r="G36" s="34"/>
+      <c r="H36" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9">
       <c r="E37" s="4">
         <v>16</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G37" s="36"/>
-    </row>
-    <row r="38" spans="5:7">
+        <v>93</v>
+      </c>
+      <c r="G37" s="34"/>
+      <c r="H37" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9">
       <c r="E38" s="4">
         <v>16</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G38" s="36"/>
-    </row>
-    <row r="39" spans="5:9">
-      <c r="E39" s="21">
+        <v>96</v>
+      </c>
+      <c r="G38" s="34"/>
+      <c r="H38" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="5:14">
+      <c r="E39" s="23">
         <v>16</v>
       </c>
-      <c r="F39" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="I39" s="52"/>
-    </row>
-    <row r="40" spans="5:7">
+      <c r="F39" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9">
       <c r="E40" s="4">
         <v>16</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G40" s="36"/>
-    </row>
-    <row r="41" spans="5:9">
+        <v>104</v>
+      </c>
+      <c r="G40" s="34"/>
+      <c r="H40" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="5:11">
       <c r="E41" s="14">
         <v>17</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G41" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="I41" s="52"/>
-    </row>
-    <row r="42" spans="5:9">
-      <c r="E42" s="23">
+        <v>85</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="5:20">
+      <c r="E42" s="25">
         <v>17</v>
       </c>
-      <c r="F42" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="G42" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="I42" s="52"/>
-    </row>
-    <row r="43" spans="5:9">
-      <c r="E43" s="25">
+      <c r="F42" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="5:13">
+      <c r="E43" s="27">
         <v>17</v>
       </c>
-      <c r="F43" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="G43" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="I43" s="52"/>
-    </row>
-    <row r="44" spans="5:9">
-      <c r="E44" s="23">
+      <c r="F43" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="5:20">
+      <c r="E44" s="25">
         <v>17</v>
       </c>
-      <c r="F44" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="G44" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="I44" s="52"/>
+      <c r="F44" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="5:9">
-      <c r="E45" s="21">
+      <c r="E45" s="23">
         <v>17</v>
       </c>
-      <c r="F45" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="G45" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="I45" s="52"/>
-    </row>
-    <row r="46" spans="5:9">
+      <c r="F45" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="5:16">
       <c r="E46" s="16">
         <v>17</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G46" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="I46" s="52"/>
-    </row>
-    <row r="47" spans="5:8">
-      <c r="E47" s="25">
+        <v>104</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="5:13">
+      <c r="E47" s="27">
         <v>18</v>
       </c>
-      <c r="F47" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="G47" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="H47" s="40"/>
-    </row>
-    <row r="48" spans="5:9">
-      <c r="E48" s="23">
+      <c r="F47" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="5:20">
+      <c r="E48" s="25">
         <v>18</v>
       </c>
-      <c r="F48" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="G48" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="I48" s="52"/>
-    </row>
-    <row r="49" spans="5:8">
-      <c r="E49" s="23">
+      <c r="F48" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="5:20">
+      <c r="E49" s="25">
         <v>18</v>
       </c>
-      <c r="F49" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="G49" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="H49" s="40"/>
-    </row>
-    <row r="50" spans="5:8">
-      <c r="E50" s="21">
+      <c r="F49" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9">
+      <c r="E50" s="23">
         <v>18</v>
       </c>
-      <c r="F50" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="G50" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="H50" s="40"/>
-    </row>
-    <row r="51" spans="5:8">
+      <c r="F50" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G50" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9">
       <c r="E51" s="4">
         <v>18</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G51" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="H51" s="40"/>
-    </row>
-    <row r="52" spans="5:8">
-      <c r="E52" s="44">
+        <v>100</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="52" spans="5:14">
+      <c r="E52" s="36">
         <v>18</v>
       </c>
-      <c r="F52" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="G52" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="H52" s="40"/>
-    </row>
-    <row r="53" spans="5:8">
-      <c r="E53" s="27">
+      <c r="F52" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12">
+      <c r="E53" s="29">
         <v>19</v>
       </c>
-      <c r="F53" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G53" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="H53" s="40"/>
-    </row>
-    <row r="54" spans="5:8">
+      <c r="F53" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="G53" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="5:16">
       <c r="E54" s="16">
         <v>19</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G54" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="H54" s="49"/>
-    </row>
-    <row r="55" spans="5:7">
-      <c r="E55" s="21">
+        <v>89</v>
+      </c>
+      <c r="G54" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="5:14">
+      <c r="E55" s="23">
         <v>19</v>
       </c>
-      <c r="F55" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="G55" s="37" t="s">
+      <c r="F55" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G55" s="31" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="56" spans="5:8">
-      <c r="E56" s="25">
+      <c r="H55" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="5:13">
+      <c r="E56" s="27">
         <v>19</v>
       </c>
-      <c r="F56" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G56" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="H56" s="40"/>
-    </row>
-    <row r="57" spans="5:8">
+      <c r="F56" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G56" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="5:11">
       <c r="E57" s="14">
         <v>19</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G57" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="H57" s="40"/>
-    </row>
-    <row r="58" spans="5:7">
+        <v>100</v>
+      </c>
+      <c r="G57" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="5:9">
       <c r="E58" s="4">
         <v>19</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="G58" s="5"/>
-    </row>
-    <row r="59" spans="5:7">
+      <c r="H58" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="5:20">
       <c r="E59" s="17" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
-    </row>
-    <row r="60" spans="5:6">
+      <c r="J59" t="s">
+        <v>77</v>
+      </c>
+      <c r="K59" t="s">
+        <v>78</v>
+      </c>
+      <c r="L59" t="s">
+        <v>79</v>
+      </c>
+      <c r="M59" t="s">
+        <v>80</v>
+      </c>
+      <c r="N59" t="s">
+        <v>81</v>
+      </c>
+      <c r="O59" t="s">
+        <v>47</v>
+      </c>
+      <c r="P59" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>53</v>
+      </c>
+      <c r="R59" t="s">
+        <v>82</v>
+      </c>
+      <c r="S59" t="s">
+        <v>83</v>
+      </c>
+      <c r="T59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="5:17">
       <c r="E60" s="6"/>
       <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="5:7">
+      <c r="I60" t="s">
+        <v>239</v>
+      </c>
+      <c r="J60">
+        <v>10</v>
+      </c>
+      <c r="K60">
+        <v>11</v>
+      </c>
+      <c r="N60">
+        <v>12</v>
+      </c>
+      <c r="O60">
+        <v>14</v>
+      </c>
+      <c r="Q60">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="5:17">
       <c r="E61" s="6"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="51"/>
-    </row>
-    <row r="62" spans="5:6">
+      <c r="G61" s="39"/>
+      <c r="I61" t="s">
+        <v>240</v>
+      </c>
+      <c r="J61">
+        <v>18</v>
+      </c>
+      <c r="K61">
+        <v>19</v>
+      </c>
+      <c r="N61">
+        <v>20</v>
+      </c>
+      <c r="O61">
+        <v>22</v>
+      </c>
+      <c r="Q61">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="5:17">
       <c r="E62" s="6"/>
       <c r="F62" s="1"/>
+      <c r="I62" t="s">
+        <v>241</v>
+      </c>
+      <c r="J62">
+        <v>50</v>
+      </c>
+      <c r="K62">
+        <v>51</v>
+      </c>
+      <c r="N62">
+        <v>52</v>
+      </c>
+      <c r="O62">
+        <v>54</v>
+      </c>
+      <c r="Q62">
+        <v>56</v>
+      </c>
     </row>
     <row r="63" spans="5:6">
       <c r="E63" s="6"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="5:6">
-      <c r="E64" s="6"/>
-      <c r="F64" s="1"/>
+    <row r="64" spans="5:14">
+      <c r="E64" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I64" t="s">
+        <v>239</v>
+      </c>
+      <c r="N64">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="4:14">
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I65" t="s">
+        <v>240</v>
+      </c>
+      <c r="N65">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="4:14">
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G66" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s">
+        <v>241</v>
+      </c>
+      <c r="N66">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7">
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="5:7">
+      <c r="E68" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="5:7">
+      <c r="E69" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="5:7">
+      <c r="E70" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F70" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="G70" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="5:7">
+      <c r="E71" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="5:7">
+      <c r="E72" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6">
+      <c r="F73" s="42" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2916,31 +3881,31 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E1" s="2" t="s">
-        <v>117</v>
+        <v>242</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E2" s="2" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E3" s="10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="5:8">
       <c r="E4" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>0</v>
@@ -2952,10 +3917,10 @@
         <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>119</v>
+        <v>244</v>
       </c>
       <c r="H5" s="18"/>
     </row>
@@ -2964,10 +3929,10 @@
         <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>120</v>
+        <v>245</v>
       </c>
       <c r="H6" s="18"/>
     </row>
@@ -2976,10 +3941,10 @@
         <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>121</v>
+        <v>246</v>
       </c>
       <c r="H7" s="18"/>
     </row>
@@ -2988,10 +3953,10 @@
         <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>122</v>
+        <v>247</v>
       </c>
       <c r="H8" s="18"/>
     </row>
@@ -3000,10 +3965,10 @@
         <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>123</v>
+        <v>248</v>
       </c>
       <c r="H9" s="18"/>
     </row>
@@ -3012,10 +3977,10 @@
         <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>124</v>
+        <v>249</v>
       </c>
       <c r="H10" s="18"/>
     </row>
@@ -3024,10 +3989,10 @@
         <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -3036,10 +4001,10 @@
         <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -3048,10 +4013,10 @@
         <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>124</v>
+        <v>249</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -3060,10 +4025,10 @@
         <v>22</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>127</v>
+        <v>252</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -3072,7 +4037,7 @@
         <v>22</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="1"/>
@@ -3082,7 +4047,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="1"/>
@@ -3092,7 +4057,7 @@
         <v>23</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="1"/>
@@ -3102,7 +4067,7 @@
         <v>23</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="1"/>
@@ -3112,7 +4077,7 @@
         <v>23</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="1"/>
@@ -3122,7 +4087,7 @@
         <v>23</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -3131,7 +4096,7 @@
         <v>23</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -3140,7 +4105,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -3149,7 +4114,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -3158,7 +4123,7 @@
         <v>24</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -3167,7 +4132,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -3176,7 +4141,7 @@
         <v>24</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -3185,7 +4150,7 @@
         <v>24</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -3194,13 +4159,13 @@
         <v>24</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" s="17" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -3244,7 +4209,7 @@
   <dimension ref="E1:H16"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:G10"/>
+      <selection activeCell="E5" sqref="E5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3256,21 +4221,21 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E1" s="2" t="s">
-        <v>128</v>
+        <v>253</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E2" s="2" t="s">
-        <v>129</v>
+        <v>254</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E3" s="10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
@@ -3280,100 +4245,100 @@
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="5:8">
       <c r="E5" s="13" t="s">
-        <v>130</v>
+        <v>255</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>131</v>
+        <v>256</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="5:8">
       <c r="E6" s="2" t="s">
-        <v>132</v>
+        <v>257</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>131</v>
+        <v>256</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="5:8">
       <c r="E7" s="2" t="s">
-        <v>133</v>
+        <v>258</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>131</v>
+        <v>256</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="5:8">
       <c r="E8" s="2" t="s">
-        <v>134</v>
+        <v>259</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>131</v>
+        <v>256</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="5:8">
       <c r="E9" s="2" t="s">
-        <v>135</v>
+        <v>260</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>131</v>
+        <v>256</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="5:8">
       <c r="E10" s="15" t="s">
-        <v>136</v>
+        <v>261</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>131</v>
+        <v>256</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="5:8">
       <c r="E11" s="2" t="s">
-        <v>137</v>
+        <v>262</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>138</v>
+        <v>263</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" s="17" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
@@ -3424,7 +4389,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>264</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -3437,25 +4402,25 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>140</v>
+        <v>265</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
-        <v>141</v>
+        <v>266</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>142</v>
+        <v>267</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="5:7">
       <c r="E5" s="2" t="s">
-        <v>143</v>
+        <v>268</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>144</v>
+        <v>269</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -3466,7 +4431,7 @@
     </row>
     <row r="7" spans="5:6">
       <c r="E7" s="8" t="s">
-        <v>145</v>
+        <v>270</v>
       </c>
       <c r="F7" s="9"/>
     </row>
@@ -3478,12 +4443,12 @@
     </row>
     <row r="10" spans="6:6">
       <c r="F10" s="6" t="s">
-        <v>142</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="6:6">
       <c r="F11" s="6" t="s">
-        <v>144</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="6:6">
@@ -3521,13 +4486,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E1" s="2" t="s">
-        <v>146</v>
+        <v>271</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E2" s="2" t="s">
-        <v>147</v>
+        <v>272</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -3536,16 +4501,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>148</v>
+        <v>273</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
-        <v>149</v>
+        <v>274</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -3554,7 +4519,7 @@
         <v>64</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>151</v>
+        <v>276</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -3613,13 +4578,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E1" s="2" t="s">
-        <v>152</v>
+        <v>277</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E2" s="2" t="s">
-        <v>153</v>
+        <v>278</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -3628,16 +4593,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>148</v>
+        <v>273</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
-        <v>154</v>
+        <v>279</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>155</v>
+        <v>280</v>
       </c>
       <c r="G4" s="1"/>
     </row>

--- a/PadControl/Assets/对接协议/设备对接(带指令).xlsx
+++ b/PadControl/Assets/对接协议/设备对接(带指令).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="网络设备信息" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="349">
   <si>
     <t>名称</t>
   </si>
@@ -537,7 +537,7 @@
     <t>0F 06 00 07 00 00</t>
   </si>
   <si>
-    <t>广播？</t>
+    <t>广播</t>
   </si>
   <si>
     <t>0F 06 00 08 00 01</t>
@@ -555,6 +555,9 @@
     <t>10 06 00 03 00 00</t>
   </si>
   <si>
+    <t>逐梦CEB</t>
+  </si>
+  <si>
     <t>10 06 00 04 00 01</t>
   </si>
   <si>
@@ -567,6 +570,9 @@
     <t>10 06 00 05 00 00</t>
   </si>
   <si>
+    <t>序厅广告</t>
+  </si>
+  <si>
     <t>10 06 00 06 00 01</t>
   </si>
   <si>
@@ -588,9 +594,6 @@
     <t>10 06 00 08 00 00</t>
   </si>
   <si>
-    <t>序厅广告</t>
-  </si>
-  <si>
     <t>11 06 00 03 00 01</t>
   </si>
   <si>
@@ -666,7 +669,7 @@
     <t>12 06 00 05 00 00</t>
   </si>
   <si>
-    <t>深空插座</t>
+    <t>全息电视</t>
   </si>
   <si>
     <t>12 06 00 06 00 01</t>
@@ -756,31 +759,229 @@
     <t>IP：192.168.3.9 端口：20022</t>
   </si>
   <si>
-    <t>汇盟筒灯1</t>
+    <t>开 不带CRC</t>
+  </si>
+  <si>
+    <t>关</t>
+  </si>
+  <si>
+    <t>汇盟射灯1</t>
+  </si>
+  <si>
+    <t>15 06 00 03 00 01</t>
+  </si>
+  <si>
+    <t>15 06 00 03 00 00</t>
   </si>
   <si>
     <t>汇盟筒灯2</t>
   </si>
   <si>
+    <t>15 06 00 04 00 01</t>
+  </si>
+  <si>
+    <t>15 06 00 04 00 00</t>
+  </si>
+  <si>
     <t>汇盟筒灯3</t>
   </si>
   <si>
+    <t>15 06 00 05 00 01</t>
+  </si>
+  <si>
+    <t>15 06 00 05 00 00</t>
+  </si>
+  <si>
     <t>智御筒灯1</t>
   </si>
   <si>
+    <t>15 06 00 06 00 01</t>
+  </si>
+  <si>
+    <t>15 06 00 06 00 00</t>
+  </si>
+  <si>
     <t>智御筒灯2</t>
   </si>
   <si>
+    <t>15 06 00 07 00 01</t>
+  </si>
+  <si>
+    <t>15 06 00 07 00 00</t>
+  </si>
+  <si>
     <t>智御射灯</t>
   </si>
   <si>
+    <t>15 06 00 08 00 01</t>
+  </si>
+  <si>
+    <t>15 06 00 08 00 00</t>
+  </si>
+  <si>
+    <t>16 06 00 03 00 01</t>
+  </si>
+  <si>
+    <t>16 06 00 03 00 00</t>
+  </si>
+  <si>
+    <t>中间筒灯</t>
+  </si>
+  <si>
+    <t>16 06 00 04 00 01</t>
+  </si>
+  <si>
+    <t>16 06 00 04 00 00</t>
+  </si>
+  <si>
+    <t>过道射灯</t>
+  </si>
+  <si>
+    <t>16 06 00 05 00 01</t>
+  </si>
+  <si>
+    <t>16 06 00 05 00 00</t>
+  </si>
+  <si>
     <t>过道筒灯</t>
   </si>
   <si>
-    <t>汇盟筒灯</t>
-  </si>
-  <si>
-    <t>汇盟过道灯</t>
+    <t>16 06 00 06 00 01</t>
+  </si>
+  <si>
+    <t>16 06 00 06 00 00</t>
+  </si>
+  <si>
+    <t>16 06 00 07 00 01</t>
+  </si>
+  <si>
+    <t>16 06 00 07 00 00</t>
+  </si>
+  <si>
+    <t>广告灯</t>
+  </si>
+  <si>
+    <t>16 06 00 08 00 01</t>
+  </si>
+  <si>
+    <t>16 06 00 08 00 00</t>
+  </si>
+  <si>
+    <t>插座</t>
+  </si>
+  <si>
+    <t>17 06 00 03 00 01</t>
+  </si>
+  <si>
+    <t>17 06 00 03 00 00</t>
+  </si>
+  <si>
+    <t>17 06 00 04 00 01</t>
+  </si>
+  <si>
+    <t>17 06 00 04 00 00</t>
+  </si>
+  <si>
+    <t>17 06 00 05 00 01</t>
+  </si>
+  <si>
+    <t>17 06 00 05 00 00</t>
+  </si>
+  <si>
+    <t>17 06 00 06 00 01</t>
+  </si>
+  <si>
+    <t>17 06 00 06 00 00</t>
+  </si>
+  <si>
+    <t>17 06 00 07 00 01</t>
+  </si>
+  <si>
+    <t>17 06 00 07 00 00</t>
+  </si>
+  <si>
+    <t>17 06 00 08 00 01</t>
+  </si>
+  <si>
+    <t>17 06 00 08 00 00</t>
+  </si>
+  <si>
+    <t>广告灯1</t>
+  </si>
+  <si>
+    <t>18 06 00 03 00 01</t>
+  </si>
+  <si>
+    <t>18 06 00 03 00 00</t>
+  </si>
+  <si>
+    <t>广告灯2</t>
+  </si>
+  <si>
+    <t>18 06 00 04 00 01</t>
+  </si>
+  <si>
+    <t>18 06 00 04 00 00</t>
+  </si>
+  <si>
+    <t>广告灯3</t>
+  </si>
+  <si>
+    <t>18 06 00 05 00 01</t>
+  </si>
+  <si>
+    <t>18 06 00 05 00 00</t>
+  </si>
+  <si>
+    <t>广告灯4</t>
+  </si>
+  <si>
+    <t>18 06 00 06 00 01</t>
+  </si>
+  <si>
+    <t>18 06 00 06 00 00</t>
+  </si>
+  <si>
+    <t>广告灯5</t>
+  </si>
+  <si>
+    <t>18 06 00 07 00 01</t>
+  </si>
+  <si>
+    <t>18 06 00 07 00 00</t>
+  </si>
+  <si>
+    <t>广告灯6</t>
+  </si>
+  <si>
+    <t>18 06 00 08 00 01</t>
+  </si>
+  <si>
+    <t>18 06 00 08 00 00</t>
+  </si>
+  <si>
+    <t>第七回路</t>
+  </si>
+  <si>
+    <t>广告灯7</t>
+  </si>
+  <si>
+    <t>18 06 00 09 00 01</t>
+  </si>
+  <si>
+    <t>18 06 00 09 00 00</t>
+  </si>
+  <si>
+    <t>第八回路</t>
+  </si>
+  <si>
+    <t>广告灯8</t>
+  </si>
+  <si>
+    <t>18 06 00 0A 00 01</t>
+  </si>
+  <si>
+    <t>18 06 00 0A 00 00</t>
   </si>
   <si>
     <t>LED大屏协议</t>
@@ -814,6 +1015,9 @@
   </si>
   <si>
     <t>16</t>
+  </si>
+  <si>
+    <t>端口20001</t>
   </si>
   <si>
     <t>展厅区域投影仪</t>
@@ -877,7 +1081,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -895,13 +1099,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1067,7 +1284,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1083,18 +1300,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,6 +1474,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1505,10 +1716,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1517,137 +1728,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1693,15 +1904,34 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1723,40 +1953,28 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1769,7 +1987,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2134,17 +2352,17 @@
     <col min="8" max="8" width="26.2666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" s="44" customFormat="1" ht="26.5" customHeight="1" spans="5:8">
-      <c r="E6" s="45" t="s">
+    <row r="6" s="47" customFormat="1" ht="26.5" customHeight="1" spans="5:8">
+      <c r="E6" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="48" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2338,13 +2556,13 @@
       </c>
     </row>
     <row r="8" spans="6:8">
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="43" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2382,13 +2600,13 @@
       </c>
     </row>
     <row r="12" spans="6:8">
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="44" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2415,7 +2633,7 @@
       </c>
     </row>
     <row r="15" spans="7:7">
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="45" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2469,7 +2687,7 @@
       </c>
     </row>
     <row r="6" spans="6:6">
-      <c r="F6" s="43"/>
+      <c r="F6" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2487,8 +2705,8 @@
   <sheetPr/>
   <dimension ref="D1:T73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C36" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66:E72"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2596,7 +2814,7 @@
       <c r="F5" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="23" t="s">
         <v>86</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -2616,7 +2834,7 @@
       <c r="F6" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="23" t="s">
         <v>90</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -2636,7 +2854,7 @@
       <c r="F7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="20"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="1" t="s">
         <v>94</v>
       </c>
@@ -2651,7 +2869,7 @@
       <c r="F8" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="23" t="s">
         <v>97</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -2665,13 +2883,13 @@
       </c>
     </row>
     <row r="9" spans="5:15">
-      <c r="E9" s="21">
+      <c r="E9" s="24">
         <v>11</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="23" t="s">
         <v>101</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -2685,13 +2903,13 @@
       </c>
     </row>
     <row r="10" spans="5:14">
-      <c r="E10" s="23">
+      <c r="E10" s="26">
         <v>11</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="23" t="s">
         <v>105</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -2705,13 +2923,13 @@
       </c>
     </row>
     <row r="11" spans="5:14">
-      <c r="E11" s="23">
+      <c r="E11" s="26">
         <v>12</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="23" t="s">
         <v>108</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -2725,13 +2943,13 @@
       </c>
     </row>
     <row r="12" spans="5:20">
-      <c r="E12" s="25">
+      <c r="E12" s="28">
         <v>12</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="23" t="s">
         <v>111</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -2751,7 +2969,7 @@
       <c r="F13" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="23" t="s">
         <v>114</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -2768,7 +2986,7 @@
       <c r="F14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="23" t="s">
         <v>117</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -2779,13 +2997,13 @@
       </c>
     </row>
     <row r="15" spans="5:20">
-      <c r="E15" s="25">
+      <c r="E15" s="28">
         <v>12</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="23" t="s">
         <v>120</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -2799,13 +3017,13 @@
       </c>
     </row>
     <row r="16" spans="5:13">
-      <c r="E16" s="27">
+      <c r="E16" s="30">
         <v>12</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="23" t="s">
         <v>123</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -2825,7 +3043,7 @@
       <c r="F17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="23"/>
       <c r="H17" s="1" t="s">
         <v>126</v>
       </c>
@@ -2834,13 +3052,13 @@
       </c>
     </row>
     <row r="18" spans="5:15">
-      <c r="E18" s="21">
+      <c r="E18" s="24">
         <v>13</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="23" t="s">
         <v>101</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -2854,13 +3072,13 @@
       </c>
     </row>
     <row r="19" spans="5:15">
-      <c r="E19" s="21">
+      <c r="E19" s="24">
         <v>13</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="23" t="s">
         <v>130</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -2874,13 +3092,13 @@
       </c>
     </row>
     <row r="20" spans="5:12">
-      <c r="E20" s="29">
+      <c r="E20" s="32">
         <v>13</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="34" t="s">
         <v>133</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -2894,13 +3112,13 @@
       </c>
     </row>
     <row r="21" spans="5:13">
-      <c r="E21" s="27">
+      <c r="E21" s="30">
         <v>13</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="34" t="s">
         <v>136</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -2914,13 +3132,13 @@
       </c>
     </row>
     <row r="22" spans="5:13">
-      <c r="E22" s="27">
+      <c r="E22" s="30">
         <v>13</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="34" t="s">
         <v>139</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -2934,13 +3152,13 @@
       </c>
     </row>
     <row r="23" spans="5:15">
-      <c r="E23" s="21">
+      <c r="E23" s="24">
         <v>14</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="34" t="s">
         <v>130</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -2954,13 +3172,13 @@
       </c>
     </row>
     <row r="24" spans="5:15">
-      <c r="E24" s="21">
+      <c r="E24" s="24">
         <v>14</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="34" t="s">
         <v>144</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -2974,13 +3192,13 @@
       </c>
     </row>
     <row r="25" spans="5:9">
-      <c r="E25" s="27">
+      <c r="E25" s="30">
         <v>14</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="G25" s="31" t="s">
+      <c r="G25" s="34" t="s">
         <v>139</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -2991,13 +3209,13 @@
       </c>
     </row>
     <row r="26" spans="5:12">
-      <c r="E26" s="29">
+      <c r="E26" s="32">
         <v>14</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="G26" s="31" t="s">
+      <c r="G26" s="34" t="s">
         <v>149</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -3017,7 +3235,7 @@
       <c r="F27" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="34" t="s">
         <v>152</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -3031,13 +3249,13 @@
       </c>
     </row>
     <row r="28" spans="5:12">
-      <c r="E28" s="29">
+      <c r="E28" s="32">
         <v>14</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="G28" s="31" t="s">
+      <c r="G28" s="34" t="s">
         <v>155</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -3057,7 +3275,7 @@
       <c r="F29" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="32" t="s">
+      <c r="G29" s="35" t="s">
         <v>158</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -3077,7 +3295,7 @@
       <c r="F30" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G30" s="32" t="s">
+      <c r="G30" s="35" t="s">
         <v>161</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -3097,7 +3315,7 @@
       <c r="F31" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G31" s="32" t="s">
+      <c r="G31" s="35" t="s">
         <v>158</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -3117,7 +3335,7 @@
       <c r="F32" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="G32" s="36" t="s">
         <v>166</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -3134,7 +3352,7 @@
       <c r="F33" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="36" t="s">
         <v>166</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -3151,7 +3369,7 @@
       <c r="F34" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="G34" s="36" t="s">
         <v>171</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -3168,7 +3386,7 @@
       <c r="F35" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G35" s="31" t="s">
+      <c r="G35" s="37" t="s">
         <v>174</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -3185,13 +3403,17 @@
       <c r="E36" s="4">
         <v>16</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="34"/>
+      <c r="F36" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="37" t="s">
+        <v>177</v>
+      </c>
       <c r="H36" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="5:9">
@@ -3201,12 +3423,12 @@
       <c r="F37" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="34"/>
+      <c r="G37" s="37"/>
       <c r="H37" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="5:9">
@@ -3216,29 +3438,31 @@
       <c r="F38" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G38" s="34"/>
+      <c r="G38" s="37" t="s">
+        <v>182</v>
+      </c>
       <c r="H38" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="5:14">
-      <c r="E39" s="23">
+      <c r="E39" s="26">
         <v>16</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="G39" s="31" t="s">
-        <v>183</v>
+      <c r="G39" s="37" t="s">
+        <v>185</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -3253,10 +3477,10 @@
       </c>
       <c r="G40" s="34"/>
       <c r="H40" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="5:11">
@@ -3266,54 +3490,54 @@
       <c r="F41" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="31" t="s">
-        <v>188</v>
+      <c r="G41" s="34" t="s">
+        <v>182</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="5:20">
-      <c r="E42" s="25">
+      <c r="E42" s="28">
         <v>17</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="G42" s="31" t="s">
-        <v>191</v>
+      <c r="G42" s="34" t="s">
+        <v>192</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="5:13">
-      <c r="E43" s="27">
+      <c r="E43" s="30">
         <v>17</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="F43" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="G43" s="31" t="s">
-        <v>194</v>
+      <c r="G43" s="34" t="s">
+        <v>195</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L43">
         <v>1</v>
@@ -3323,40 +3547,40 @@
       </c>
     </row>
     <row r="44" spans="5:20">
-      <c r="E44" s="25">
+      <c r="E44" s="28">
         <v>17</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G44" s="31" t="s">
-        <v>197</v>
+      <c r="G44" s="34" t="s">
+        <v>198</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="5:9">
-      <c r="E45" s="23">
+      <c r="E45" s="26">
         <v>17</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="G45" s="31" t="s">
-        <v>200</v>
+      <c r="G45" s="34" t="s">
+        <v>201</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="5:16">
@@ -3366,94 +3590,94 @@
       <c r="F46" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G46" s="31" t="s">
-        <v>203</v>
+      <c r="G46" s="34" t="s">
+        <v>204</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="5:13">
-      <c r="E47" s="27">
+      <c r="E47" s="30">
         <v>18</v>
       </c>
-      <c r="F47" s="28" t="s">
+      <c r="F47" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="G47" s="31" t="s">
-        <v>206</v>
+      <c r="G47" s="34" t="s">
+        <v>207</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="5:20">
-      <c r="E48" s="25">
+      <c r="E48" s="28">
         <v>18</v>
       </c>
-      <c r="F48" s="26" t="s">
+      <c r="F48" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="G48" s="31" t="s">
-        <v>191</v>
+      <c r="G48" s="34" t="s">
+        <v>192</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="T48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="5:20">
-      <c r="E49" s="25">
+      <c r="E49" s="28">
         <v>18</v>
       </c>
-      <c r="F49" s="26" t="s">
+      <c r="F49" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="G49" s="35" t="s">
-        <v>211</v>
+      <c r="G49" s="38" t="s">
+        <v>212</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="5:9">
-      <c r="E50" s="23">
+      <c r="E50" s="26">
         <v>18</v>
       </c>
-      <c r="F50" s="24" t="s">
+      <c r="F50" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="G50" s="32" t="s">
-        <v>214</v>
+      <c r="G50" s="36" t="s">
+        <v>215</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="5:9">
@@ -3463,51 +3687,51 @@
       <c r="F51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G51" s="33" t="s">
-        <v>217</v>
+      <c r="G51" s="35" t="s">
+        <v>218</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="5:14">
-      <c r="E52" s="36">
+      <c r="E52" s="39">
         <v>18</v>
       </c>
-      <c r="F52" s="37" t="s">
+      <c r="F52" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="G52" s="31" t="s">
-        <v>220</v>
+      <c r="G52" s="34" t="s">
+        <v>221</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="5:12">
-      <c r="E53" s="29">
+      <c r="E53" s="32">
         <v>19</v>
       </c>
-      <c r="F53" s="30" t="s">
+      <c r="F53" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="G53" s="32" t="s">
-        <v>223</v>
+      <c r="G53" s="35" t="s">
+        <v>224</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -3520,54 +3744,54 @@
       <c r="F54" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G54" s="32" t="s">
-        <v>226</v>
+      <c r="G54" s="35" t="s">
+        <v>227</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="5:14">
-      <c r="E55" s="23">
+      <c r="E55" s="26">
         <v>19</v>
       </c>
-      <c r="F55" s="24" t="s">
+      <c r="F55" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="G55" s="31" t="s">
+      <c r="G55" s="34" t="s">
         <v>41</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="5:13">
-      <c r="E56" s="27">
+      <c r="E56" s="30">
         <v>19</v>
       </c>
-      <c r="F56" s="28" t="s">
+      <c r="F56" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G56" s="38" t="s">
-        <v>206</v>
+      <c r="G56" s="41" t="s">
+        <v>207</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -3580,14 +3804,14 @@
       <c r="F57" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G57" s="32" t="s">
-        <v>233</v>
+      <c r="G57" s="35" t="s">
+        <v>234</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -3602,18 +3826,18 @@
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="5:20">
-      <c r="E59" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
+      <c r="E59" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
       <c r="J59" t="s">
         <v>77</v>
       </c>
@@ -3652,7 +3876,7 @@
       <c r="E60" s="6"/>
       <c r="F60" s="1"/>
       <c r="I60" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J60">
         <v>10</v>
@@ -3673,9 +3897,9 @@
     <row r="61" spans="5:17">
       <c r="E61" s="6"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="39"/>
+      <c r="G61" s="42"/>
       <c r="I61" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J61">
         <v>18</v>
@@ -3697,7 +3921,7 @@
       <c r="E62" s="6"/>
       <c r="F62" s="1"/>
       <c r="I62" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J62">
         <v>50</v>
@@ -3730,7 +3954,7 @@
         <v>34</v>
       </c>
       <c r="I64" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N64">
         <v>13</v>
@@ -3750,7 +3974,7 @@
         <v>37</v>
       </c>
       <c r="I65" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N65">
         <v>21</v>
@@ -3760,17 +3984,17 @@
       <c r="D66">
         <v>1</v>
       </c>
-      <c r="E66" s="40" t="s">
+      <c r="E66" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F66" s="40" t="s">
+      <c r="F66" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="G66" s="40" t="s">
+      <c r="G66" s="43" t="s">
         <v>40</v>
       </c>
       <c r="I66" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N66">
         <v>53</v>
@@ -3813,13 +4037,13 @@
       </c>
     </row>
     <row r="70" spans="5:7">
-      <c r="E70" s="41" t="s">
+      <c r="E70" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="F70" s="41" t="s">
+      <c r="F70" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="G70" s="41" t="s">
+      <c r="G70" s="44" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3846,7 +4070,7 @@
       </c>
     </row>
     <row r="73" spans="6:6">
-      <c r="F73" s="42" t="s">
+      <c r="F73" s="45" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3866,29 +4090,31 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E1:H34"/>
+  <dimension ref="E1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="14.3666666666667" customWidth="1"/>
     <col min="6" max="6" width="19.1833333333333" customWidth="1"/>
     <col min="7" max="7" width="19.725" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E1" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E2" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3900,7 +4126,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="5:8">
+    <row r="4" spans="5:9">
       <c r="E4" s="3" t="s">
         <v>73</v>
       </c>
@@ -3910,273 +4136,453 @@
       <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="5:8">
-      <c r="E5" s="4">
+      <c r="H4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="5:9">
+      <c r="E5" s="19">
         <v>21</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="5:8">
-      <c r="E6" s="4">
+      <c r="G5" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9">
+      <c r="E6" s="19">
         <v>21</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="5:8">
-      <c r="E7" s="4">
+      <c r="G6" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="5:9">
+      <c r="E7" s="19">
         <v>21</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="5:8">
-      <c r="E8" s="4">
+      <c r="G7" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="5:9">
+      <c r="E8" s="19">
         <v>21</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="5:8">
-      <c r="E9" s="4">
+      <c r="G8" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9">
+      <c r="E9" s="19">
         <v>21</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="5:8">
-      <c r="E10" s="4">
+      <c r="G9" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9">
+      <c r="E10" s="19">
         <v>21</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="5:8">
-      <c r="E11" s="4">
+      <c r="G10" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9">
+      <c r="E11" s="19">
         <v>22</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="5:8">
-      <c r="E12" s="4">
+      <c r="G11" s="20"/>
+      <c r="H11" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9">
+      <c r="E12" s="19">
         <v>22</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="5:8">
-      <c r="E13" s="4">
+      <c r="G12" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9">
+      <c r="E13" s="19">
         <v>22</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="5:8">
-      <c r="E14" s="4">
+      <c r="G13" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9">
+      <c r="E14" s="19">
         <v>22</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="5:8">
-      <c r="E15" s="4">
+      <c r="G14" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9">
+      <c r="E15" s="19">
         <v>22</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="5:8">
-      <c r="E16" s="4">
+      <c r="G15" s="20"/>
+      <c r="H15" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9">
+      <c r="E16" s="19">
         <v>22</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="5:8">
-      <c r="E17" s="4">
+      <c r="G16" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9">
+      <c r="E17" s="19">
         <v>23</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="5:8">
-      <c r="E18" s="4">
+      <c r="G17" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9">
+      <c r="E18" s="19">
         <v>23</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="5:8">
-      <c r="E19" s="4">
+      <c r="G18" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9">
+      <c r="E19" s="19">
         <v>23</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="5:7">
-      <c r="E20" s="4">
+      <c r="G19" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9">
+      <c r="E20" s="19">
         <v>23</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="5:7">
-      <c r="E21" s="4">
+      <c r="G20" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I20" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9">
+      <c r="E21" s="19">
         <v>23</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="5:7">
-      <c r="E22" s="4">
+      <c r="G21" s="21"/>
+      <c r="H21" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I21" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9">
+      <c r="E22" s="19">
         <v>23</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="5:7">
-      <c r="E23" s="4">
+      <c r="G22" s="21"/>
+      <c r="H22" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9">
+      <c r="E23" s="19">
         <v>24</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="5:7">
-      <c r="E24" s="4">
+      <c r="G23" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9">
+      <c r="E24" s="19">
         <v>24</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="5:7">
-      <c r="E25" s="4">
+      <c r="G24" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9">
+      <c r="E25" s="19">
         <v>24</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="5:7">
-      <c r="E26" s="4">
+      <c r="G25" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9">
+      <c r="E26" s="19">
         <v>24</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="5:7">
-      <c r="E27" s="4">
+      <c r="G26" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I26" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9">
+      <c r="E27" s="19">
         <v>24</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="5:7">
-      <c r="E28" s="4">
+      <c r="G27" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9">
+      <c r="E28" s="19">
         <v>24</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="5:7">
-      <c r="E29" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="5:6">
-      <c r="E30" s="6"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="5:6">
-      <c r="E31" s="6"/>
-      <c r="F31" s="1"/>
+      <c r="G28" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I28" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9">
+      <c r="E29" s="19">
+        <v>24</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9">
+      <c r="E30" s="19">
+        <v>24</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I30" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7">
+      <c r="E31" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
     </row>
     <row r="32" spans="5:6">
       <c r="E32" s="6"/>
@@ -4195,7 +4601,7 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -4209,7 +4615,7 @@
   <dimension ref="E1:H16"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:G5"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -4221,14 +4627,14 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E1" s="2" t="s">
-        <v>253</v>
+        <v>320</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>321</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4254,10 +4660,10 @@
     </row>
     <row r="5" spans="5:8">
       <c r="E5" s="13" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>256</v>
+        <v>323</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>85</v>
@@ -4266,10 +4672,10 @@
     </row>
     <row r="6" spans="5:8">
       <c r="E6" s="2" t="s">
-        <v>257</v>
+        <v>324</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>256</v>
+        <v>323</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>89</v>
@@ -4278,10 +4684,10 @@
     </row>
     <row r="7" spans="5:8">
       <c r="E7" s="2" t="s">
-        <v>258</v>
+        <v>325</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>256</v>
+        <v>323</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>93</v>
@@ -4290,10 +4696,10 @@
     </row>
     <row r="8" spans="5:8">
       <c r="E8" s="2" t="s">
-        <v>259</v>
+        <v>326</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>256</v>
+        <v>323</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>96</v>
@@ -4302,10 +4708,10 @@
     </row>
     <row r="9" spans="5:8">
       <c r="E9" s="2" t="s">
-        <v>260</v>
+        <v>327</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>256</v>
+        <v>323</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>100</v>
@@ -4314,10 +4720,10 @@
     </row>
     <row r="10" spans="5:8">
       <c r="E10" s="15" t="s">
-        <v>261</v>
+        <v>328</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>256</v>
+        <v>323</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>104</v>
@@ -4326,22 +4732,24 @@
     </row>
     <row r="11" spans="5:8">
       <c r="E11" s="2" t="s">
-        <v>262</v>
+        <v>329</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>263</v>
+        <v>330</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="17" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="12" spans="5:7">
-      <c r="E12" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="E12" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="6:7">
       <c r="F13" s="6"/>
@@ -4389,7 +4797,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E1" s="2" t="s">
-        <v>264</v>
+        <v>332</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -4402,25 +4810,25 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>265</v>
+        <v>333</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
-        <v>266</v>
+        <v>334</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>267</v>
+        <v>335</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="5:7">
       <c r="E5" s="2" t="s">
-        <v>268</v>
+        <v>336</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>269</v>
+        <v>337</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -4431,7 +4839,7 @@
     </row>
     <row r="7" spans="5:6">
       <c r="E7" s="8" t="s">
-        <v>270</v>
+        <v>338</v>
       </c>
       <c r="F7" s="9"/>
     </row>
@@ -4443,12 +4851,12 @@
     </row>
     <row r="10" spans="6:6">
       <c r="F10" s="6" t="s">
-        <v>267</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="6:6">
       <c r="F11" s="6" t="s">
-        <v>269</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="6:6">
@@ -4486,13 +4894,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E1" s="2" t="s">
-        <v>271</v>
+        <v>339</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E2" s="2" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -4501,16 +4909,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>273</v>
+        <v>341</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
-        <v>274</v>
+        <v>342</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>275</v>
+        <v>343</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -4519,7 +4927,7 @@
         <v>64</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>276</v>
+        <v>344</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -4578,13 +4986,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E1" s="2" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E2" s="2" t="s">
-        <v>278</v>
+        <v>346</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -4593,16 +5001,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>273</v>
+        <v>341</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
-        <v>279</v>
+        <v>347</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>280</v>
+        <v>348</v>
       </c>
       <c r="G4" s="1"/>
     </row>

--- a/PadControl/Assets/对接协议/设备对接(带指令).xlsx
+++ b/PadControl/Assets/对接协议/设备对接(带指令).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="网络设备信息" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="367">
   <si>
     <t>名称</t>
   </si>
@@ -204,6 +204,12 @@
     <t>协议参照说明A-1</t>
   </si>
   <si>
+    <t>开ASK码 0</t>
+  </si>
+  <si>
+    <t>关ASK码 1</t>
+  </si>
+  <si>
     <t>IP：192.168.3.9 端口：20007</t>
   </si>
   <si>
@@ -990,46 +996,94 @@
     <t>IP：192.168.3.9 端口：20003</t>
   </si>
   <si>
+    <t>开 指令不带CRC</t>
+  </si>
+  <si>
     <t>门口LED大屏</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
+    <t>1F 06 00 03 00 01</t>
+  </si>
+  <si>
+    <t>1F 06 00 03 00 00</t>
+  </si>
+  <si>
     <t>智御LED大屏</t>
   </si>
   <si>
+    <t>1F 06 00 04 00 01</t>
+  </si>
+  <si>
+    <t>1F 06 00 04 00 00</t>
+  </si>
+  <si>
     <t>汇盟LED大屏</t>
   </si>
   <si>
+    <t>1F 06 00 05 00 01</t>
+  </si>
+  <si>
+    <t>1F 06 00 05 00 00</t>
+  </si>
+  <si>
     <t>全息LED大屏1</t>
   </si>
   <si>
+    <t>1F 06 00 06 00 01</t>
+  </si>
+  <si>
+    <t>1F 06 00 06 00 00</t>
+  </si>
+  <si>
     <t>全息LED大屏2</t>
   </si>
   <si>
+    <t>1F 06 00 07 00 01</t>
+  </si>
+  <si>
+    <t>1F 06 00 07 00 00</t>
+  </si>
+  <si>
     <t>强策LED大屏</t>
   </si>
   <si>
+    <t>1F 06 00 08 00 01</t>
+  </si>
+  <si>
+    <t>1F 06 00 08 00 00</t>
+  </si>
+  <si>
+    <t>端口20001</t>
+  </si>
+  <si>
     <t>逐梦LED大屏</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>端口20001</t>
-  </si>
-  <si>
     <t>展厅区域投影仪</t>
   </si>
   <si>
     <t>IP地址</t>
   </si>
   <si>
+    <t>开 完整指令</t>
+  </si>
+  <si>
     <t>投影仪1</t>
   </si>
   <si>
     <t>192.168.3.26</t>
+  </si>
+  <si>
+    <t>25 31 50 4f 57 52 20 31 0d</t>
+  </si>
+  <si>
+    <t>25 31 50 4f 57 52 20 30 0d</t>
   </si>
   <si>
     <t>投影仪2</t>
@@ -1081,7 +1135,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1093,27 +1147,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1716,10 +1749,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1728,137 +1761,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1904,20 +1937,20 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1956,16 +1989,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1974,7 +2004,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1987,7 +2017,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2352,17 +2382,17 @@
     <col min="8" max="8" width="26.2666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" s="47" customFormat="1" ht="26.5" customHeight="1" spans="5:8">
-      <c r="E6" s="48" t="s">
+    <row r="6" s="46" customFormat="1" ht="26.5" customHeight="1" spans="5:8">
+      <c r="E6" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="47" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2520,10 +2550,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="F6:H15"/>
+  <dimension ref="F6:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:I15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2556,13 +2586,13 @@
       </c>
     </row>
     <row r="8" spans="6:8">
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="42" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2600,13 +2630,13 @@
       </c>
     </row>
     <row r="12" spans="6:8">
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="43" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2633,8 +2663,16 @@
       </c>
     </row>
     <row r="15" spans="7:7">
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="44" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="7:8">
+      <c r="G16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2660,34 +2698,34 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E1" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="5:6">
       <c r="E2" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="5:6">
       <c r="E3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="5:6">
       <c r="E4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="6:6">
-      <c r="F6" s="46"/>
+      <c r="F6" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2720,33 +2758,33 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:14">
       <c r="E1" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="M1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:14">
       <c r="E2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="M2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="20" customHeight="1" spans="5:14">
       <c r="E3" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -2759,34 +2797,34 @@
     </row>
     <row r="4" spans="5:20">
       <c r="E4" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O4" t="s">
         <v>47</v>
@@ -2798,13 +2836,13 @@
         <v>53</v>
       </c>
       <c r="R4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="5:16">
@@ -2812,16 +2850,16 @@
         <v>11</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -2832,16 +2870,16 @@
         <v>11</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -2852,14 +2890,14 @@
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="5:16">
@@ -2867,16 +2905,16 @@
         <v>11</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -2887,16 +2925,16 @@
         <v>11</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -2907,16 +2945,16 @@
         <v>11</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -2927,16 +2965,16 @@
         <v>12</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -2947,16 +2985,16 @@
         <v>12</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -2967,16 +3005,16 @@
         <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="5:9">
@@ -2984,16 +3022,16 @@
         <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="5:20">
@@ -3001,16 +3039,16 @@
         <v>12</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="T15">
         <v>1</v>
@@ -3021,16 +3059,16 @@
         <v>12</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -3041,14 +3079,14 @@
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="5:15">
@@ -3056,16 +3094,16 @@
         <v>13</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -3076,16 +3114,16 @@
         <v>13</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -3096,16 +3134,16 @@
         <v>13</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -3116,16 +3154,16 @@
         <v>13</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -3136,16 +3174,16 @@
         <v>13</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -3156,16 +3194,16 @@
         <v>14</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -3176,16 +3214,16 @@
         <v>14</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -3196,16 +3234,16 @@
         <v>14</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="5:12">
@@ -3213,16 +3251,16 @@
         <v>14</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -3233,16 +3271,16 @@
         <v>14</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -3253,16 +3291,16 @@
         <v>14</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -3273,16 +3311,16 @@
         <v>15</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -3293,16 +3331,16 @@
         <v>15</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -3313,16 +3351,16 @@
         <v>15</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -3333,16 +3371,16 @@
         <v>15</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="5:9">
@@ -3350,16 +3388,16 @@
         <v>15</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="5:9">
@@ -3367,16 +3405,16 @@
         <v>15</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="5:11">
@@ -3384,16 +3422,16 @@
         <v>16</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G35" s="37" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -3404,16 +3442,16 @@
         <v>16</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G36" s="37" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="5:9">
@@ -3421,14 +3459,14 @@
         <v>16</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G37" s="37"/>
       <c r="H37" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="5:9">
@@ -3436,16 +3474,16 @@
         <v>16</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G38" s="37" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="5:14">
@@ -3453,16 +3491,16 @@
         <v>16</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G39" s="37" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -3473,14 +3511,14 @@
         <v>16</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G40" s="34"/>
       <c r="H40" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="5:11">
@@ -3488,16 +3526,16 @@
         <v>17</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -3508,16 +3546,16 @@
         <v>17</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="T42">
         <v>1</v>
@@ -3528,16 +3566,16 @@
         <v>17</v>
       </c>
       <c r="F43" s="31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L43">
         <v>1</v>
@@ -3551,16 +3589,16 @@
         <v>17</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="T44">
         <v>1</v>
@@ -3571,16 +3609,16 @@
         <v>17</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="5:16">
@@ -3588,16 +3626,16 @@
         <v>17</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P46">
         <v>1</v>
@@ -3608,16 +3646,16 @@
         <v>18</v>
       </c>
       <c r="F47" s="31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -3628,16 +3666,16 @@
         <v>18</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="T48">
         <v>1</v>
@@ -3648,16 +3686,16 @@
         <v>18</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="G49" s="38" t="s">
-        <v>212</v>
+        <v>95</v>
+      </c>
+      <c r="G49" s="36" t="s">
+        <v>214</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="T49">
         <v>1</v>
@@ -3668,16 +3706,16 @@
         <v>18</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="5:9">
@@ -3685,33 +3723,33 @@
         <v>18</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G51" s="35" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="5:14">
-      <c r="E52" s="39">
+      <c r="E52" s="38">
         <v>18</v>
       </c>
-      <c r="F52" s="40" t="s">
-        <v>104</v>
+      <c r="F52" s="39" t="s">
+        <v>106</v>
       </c>
       <c r="G52" s="34" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3722,16 +3760,16 @@
         <v>19</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G53" s="35" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -3742,16 +3780,16 @@
         <v>19</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G54" s="35" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P54">
         <v>1</v>
@@ -3762,16 +3800,16 @@
         <v>19</v>
       </c>
       <c r="F55" s="27" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G55" s="34" t="s">
         <v>41</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3782,16 +3820,16 @@
         <v>19</v>
       </c>
       <c r="F56" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="G56" s="41" t="s">
-        <v>207</v>
+        <v>98</v>
+      </c>
+      <c r="G56" s="40" t="s">
+        <v>209</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -3802,16 +3840,16 @@
         <v>19</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G57" s="35" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -3822,36 +3860,36 @@
         <v>19</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="5:20">
       <c r="E59" s="18" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
       <c r="J59" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K59" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L59" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M59" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N59" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O59" t="s">
         <v>47</v>
@@ -3863,20 +3901,20 @@
         <v>53</v>
       </c>
       <c r="R59" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S59" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T59" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="5:17">
       <c r="E60" s="6"/>
       <c r="F60" s="1"/>
       <c r="I60" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J60">
         <v>10</v>
@@ -3897,9 +3935,9 @@
     <row r="61" spans="5:17">
       <c r="E61" s="6"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="42"/>
+      <c r="G61" s="41"/>
       <c r="I61" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J61">
         <v>18</v>
@@ -3921,7 +3959,7 @@
       <c r="E62" s="6"/>
       <c r="F62" s="1"/>
       <c r="I62" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J62">
         <v>50</v>
@@ -3954,7 +3992,7 @@
         <v>34</v>
       </c>
       <c r="I64" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N64">
         <v>13</v>
@@ -3974,7 +4012,7 @@
         <v>37</v>
       </c>
       <c r="I65" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N65">
         <v>21</v>
@@ -3984,17 +4022,17 @@
       <c r="D66">
         <v>1</v>
       </c>
-      <c r="E66" s="43" t="s">
+      <c r="E66" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F66" s="43" t="s">
+      <c r="F66" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="G66" s="43" t="s">
+      <c r="G66" s="42" t="s">
         <v>40</v>
       </c>
       <c r="I66" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N66">
         <v>53</v>
@@ -4037,13 +4075,13 @@
       </c>
     </row>
     <row r="70" spans="5:7">
-      <c r="E70" s="44" t="s">
+      <c r="E70" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="F70" s="44" t="s">
+      <c r="F70" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="G70" s="44" t="s">
+      <c r="G70" s="43" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4070,7 +4108,7 @@
       </c>
     </row>
     <row r="73" spans="6:6">
-      <c r="F73" s="45" t="s">
+      <c r="F73" s="44" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4092,8 +4130,8 @@
   <sheetPr/>
   <dimension ref="E1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4107,40 +4145,40 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E1" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E2" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E3" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="5:9">
       <c r="E4" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="5:9">
@@ -4148,16 +4186,16 @@
         <v>21</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="5:9">
@@ -4165,16 +4203,16 @@
         <v>21</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="5:9">
@@ -4182,16 +4220,16 @@
         <v>21</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="5:9">
@@ -4199,16 +4237,16 @@
         <v>21</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="5:9">
@@ -4216,16 +4254,16 @@
         <v>21</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I9" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="5:9">
@@ -4233,16 +4271,16 @@
         <v>21</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I10" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="5:9">
@@ -4250,14 +4288,14 @@
         <v>22</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I11" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="5:9">
@@ -4265,16 +4303,16 @@
         <v>22</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I12" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="5:9">
@@ -4282,16 +4320,16 @@
         <v>22</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I13" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="5:9">
@@ -4299,16 +4337,16 @@
         <v>22</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I14" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="5:9">
@@ -4316,14 +4354,14 @@
         <v>22</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I15" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="5:9">
@@ -4331,16 +4369,16 @@
         <v>22</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I16" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="5:9">
@@ -4348,16 +4386,16 @@
         <v>23</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I17" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="5:9">
@@ -4365,16 +4403,16 @@
         <v>23</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I18" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="5:9">
@@ -4382,16 +4420,16 @@
         <v>23</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I19" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="5:9">
@@ -4399,16 +4437,16 @@
         <v>23</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I20" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="5:9">
@@ -4416,14 +4454,14 @@
         <v>23</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I21" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="5:9">
@@ -4431,14 +4469,14 @@
         <v>23</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G22" s="21"/>
       <c r="H22" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I22" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="5:9">
@@ -4446,16 +4484,16 @@
         <v>24</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I23" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="5:9">
@@ -4463,16 +4501,16 @@
         <v>24</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I24" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="5:9">
@@ -4480,16 +4518,16 @@
         <v>24</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I25" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="5:9">
@@ -4497,16 +4535,16 @@
         <v>24</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I26" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="5:9">
@@ -4514,16 +4552,16 @@
         <v>24</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I27" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="5:9">
@@ -4531,16 +4569,16 @@
         <v>24</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I28" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="5:9">
@@ -4548,16 +4586,16 @@
         <v>24</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I29" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="5:9">
@@ -4565,21 +4603,21 @@
         <v>24</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I30" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" s="22" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
@@ -4612,141 +4650,184 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E1:H16"/>
+  <dimension ref="D1:I16"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="19.725" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="19.1833333333333" customWidth="1"/>
+    <col min="7" max="7" width="27.5" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E1" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E2" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E3" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="5:8">
+    <row r="4" spans="5:9">
       <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="5:8">
+        <v>76</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="5:9">
       <c r="E5" s="13" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="5:8">
+        <v>87</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9">
       <c r="E6" s="2" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="5:8">
+        <v>91</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="5:9">
       <c r="E7" s="2" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="5:8">
+        <v>95</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="5:9">
       <c r="E8" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>323</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="5:8">
+        <v>98</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9">
       <c r="E9" s="2" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="5:8">
+        <v>102</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9">
       <c r="E10" s="15" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="5:8">
+        <v>106</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9">
+      <c r="D11" s="17" t="s">
+        <v>344</v>
+      </c>
       <c r="E11" s="2" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>331</v>
+        <v>91</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I11" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" s="18" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
@@ -4783,21 +4864,23 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E1:G13"/>
+  <dimension ref="E1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="5" max="5" width="19.725" customWidth="1"/>
     <col min="6" max="6" width="32.45" customWidth="1"/>
+    <col min="7" max="7" width="32.375" customWidth="1"/>
+    <col min="8" max="8" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E1" s="2" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -4805,30 +4888,40 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="5:7">
+    <row r="3" spans="5:8">
       <c r="E3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="5:7">
+        <v>348</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="5:8">
       <c r="E4" s="2" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>351</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H4" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="5" spans="5:7">
       <c r="E5" s="2" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -4839,7 +4932,7 @@
     </row>
     <row r="7" spans="5:6">
       <c r="E7" s="8" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="F7" s="9"/>
     </row>
@@ -4851,12 +4944,12 @@
     </row>
     <row r="10" spans="6:6">
       <c r="F10" s="6" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="6:6">
       <c r="F11" s="6" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="6:6">
@@ -4882,8 +4975,8 @@
   <sheetPr/>
   <dimension ref="E1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4894,13 +4987,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E1" s="2" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E2" s="2" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -4909,25 +5002,25 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="5:7">
       <c r="E5" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -4986,13 +5079,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E1" s="2" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E2" s="2" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -5001,16 +5094,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="G4" s="1"/>
     </row>

--- a/PadControl/Assets/对接协议/设备对接(带指令).xlsx
+++ b/PadControl/Assets/对接协议/设备对接(带指令).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="网络设备信息" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="380">
   <si>
     <t>名称</t>
   </si>
@@ -129,6 +129,12 @@
     <t>电脑IP</t>
   </si>
   <si>
+    <t>IPNO</t>
+  </si>
+  <si>
+    <t>PADNO</t>
+  </si>
+  <si>
     <t>大门右屏</t>
   </si>
   <si>
@@ -147,6 +153,9 @@
     <t>192.168.3.19</t>
   </si>
   <si>
+    <t>铸魂1</t>
+  </si>
+  <si>
     <t>互动投影</t>
   </si>
   <si>
@@ -156,6 +165,9 @@
     <t>192.168.3.20</t>
   </si>
   <si>
+    <t>铸魂2</t>
+  </si>
+  <si>
     <t>全息投影</t>
   </si>
   <si>
@@ -195,6 +207,9 @@
     <t>智御</t>
   </si>
   <si>
+    <t>安全</t>
+  </si>
+  <si>
     <t>192.168.3.17</t>
   </si>
   <si>
@@ -210,6 +225,27 @@
     <t>关ASK码 1</t>
   </si>
   <si>
+    <t>寻迹1</t>
+  </si>
+  <si>
+    <t>电波传音</t>
+  </si>
+  <si>
+    <t>插座</t>
+  </si>
+  <si>
+    <t>192.168.3.28</t>
+  </si>
+  <si>
+    <t>寻迹2</t>
+  </si>
+  <si>
+    <t>密电风云</t>
+  </si>
+  <si>
+    <t>192.168.3.29</t>
+  </si>
+  <si>
     <t>IP：192.168.3.9 端口：20007</t>
   </si>
   <si>
@@ -219,21 +255,30 @@
     <t>开启</t>
   </si>
   <si>
-    <t>AE 20 CF 29 03 FF FF 00 AC</t>
+    <t>AE 20 01 29 03 FF FF OO AC</t>
   </si>
   <si>
     <t>关闭</t>
   </si>
   <si>
-    <t>AE 20 CF 29 03 FF 00 00 AC</t>
+    <t>AE 20 01 29 03 FF 00 00 AC</t>
+  </si>
+  <si>
+    <t>发送卡开启</t>
+  </si>
+  <si>
+    <t>AE 20 02 29 03 FF FF 0O AC</t>
+  </si>
+  <si>
+    <t>发送卡关闭</t>
+  </si>
+  <si>
+    <t>AE 20 02 29 03 FF 00 00 AC</t>
   </si>
   <si>
     <t>展厅区域灯光插座</t>
   </si>
   <si>
-    <t>电波传音</t>
-  </si>
-  <si>
     <t>全息</t>
   </si>
   <si>
@@ -276,12 +321,6 @@
     <t>铸魂</t>
   </si>
   <si>
-    <t>安全</t>
-  </si>
-  <si>
-    <t>走廊</t>
-  </si>
-  <si>
     <t>筑基</t>
   </si>
   <si>
@@ -561,7 +600,7 @@
     <t>10 06 00 03 00 00</t>
   </si>
   <si>
-    <t>逐梦CEB</t>
+    <t>逐梦LED</t>
   </si>
   <si>
     <t>10 06 00 04 00 01</t>
@@ -615,7 +654,7 @@
     <t>11 06 00 04 00 00</t>
   </si>
   <si>
-    <t>循迹诞始</t>
+    <t>循迹广告字</t>
   </si>
   <si>
     <t>11 06 00 05 00 01</t>
@@ -750,15 +789,6 @@
     <t>ID需要转换16进制</t>
   </si>
   <si>
-    <t>开关IPNO</t>
-  </si>
-  <si>
-    <t>主机IPNO</t>
-  </si>
-  <si>
-    <t>平板IPNO</t>
-  </si>
-  <si>
     <t>办公区域域灯光插座</t>
   </si>
   <si>
@@ -873,9 +903,6 @@
     <t>16 06 00 08 00 00</t>
   </si>
   <si>
-    <t>插座</t>
-  </si>
-  <si>
     <t>17 06 00 03 00 01</t>
   </si>
   <si>
@@ -919,6 +946,18 @@
   </si>
   <si>
     <t>18 06 00 03 00 00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 06 00 02 00 01 </t>
+  </si>
+  <si>
+    <t>全开</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 06 00 01 00 01 </t>
+  </si>
+  <si>
+    <t>全关</t>
   </si>
   <si>
     <t>广告灯2</t>
@@ -1135,7 +1174,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1153,13 +1192,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1749,10 +1795,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1761,34 +1807,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1800,98 +1843,101 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1953,6 +1999,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1986,38 +2033,53 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2382,17 +2444,17 @@
     <col min="8" max="8" width="26.2666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" s="46" customFormat="1" ht="26.5" customHeight="1" spans="5:8">
-      <c r="E6" s="47" t="s">
+    <row r="6" s="52" customFormat="1" ht="26.5" customHeight="1" spans="5:8">
+      <c r="E6" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="53" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2550,20 +2612,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="F6:H16"/>
+  <dimension ref="E6:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="19.8166666666667" customWidth="1"/>
     <col min="8" max="8" width="15.45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="6:8">
+    <row r="6" spans="6:10">
       <c r="F6" s="5" t="s">
         <v>0</v>
       </c>
@@ -2573,106 +2635,209 @@
       <c r="H6" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="6:8">
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="6:10">
       <c r="F7" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="6:8">
-      <c r="F8" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="I7" s="51">
+        <v>18</v>
+      </c>
+      <c r="J7" s="51">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="6:10">
+      <c r="F8" s="48" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="6:8">
+      <c r="G8" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="51">
+        <v>19</v>
+      </c>
+      <c r="J8" s="51">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10">
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
       <c r="F9" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="6:8">
+        <v>46</v>
+      </c>
+      <c r="I9" s="51">
+        <v>20</v>
+      </c>
+      <c r="J9" s="51">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10">
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
       <c r="F10" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="6:8">
+        <v>50</v>
+      </c>
+      <c r="I10" s="51">
+        <v>21</v>
+      </c>
+      <c r="J10" s="51">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="6:10">
       <c r="F11" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="6:8">
-      <c r="F12" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="6:8">
+        <v>53</v>
+      </c>
+      <c r="I11" s="51">
+        <v>22</v>
+      </c>
+      <c r="J11" s="51">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="6:10">
+      <c r="F12" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="51">
+        <v>23</v>
+      </c>
+      <c r="J12" s="51">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="6:10">
       <c r="F13" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="6:8">
+        <v>59</v>
+      </c>
+      <c r="I13" s="51">
+        <v>24</v>
+      </c>
+      <c r="J13" s="51">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10">
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
       <c r="F14" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="I14" s="51">
+        <v>25</v>
+      </c>
+      <c r="J14" s="51">
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="7:7">
-      <c r="G15" s="44" t="s">
-        <v>59</v>
+      <c r="G15" s="50" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="7:8">
       <c r="G16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10">
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="51">
+        <v>28</v>
+      </c>
+      <c r="J20" s="51">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10">
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="51">
+        <v>29</v>
+      </c>
+      <c r="J21" s="51">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2687,7 +2852,7 @@
   <dimension ref="E1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -2698,34 +2863,47 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E1" s="10" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="5:6">
       <c r="E2" s="8" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="5:6">
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="5:6">
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="6:6">
-      <c r="F6" s="45"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="5:6">
+      <c r="E5" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="5:6">
+      <c r="E6" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2741,10 +2919,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D1:T73"/>
+  <dimension ref="E1:R60"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="R1" sqref="R$1:R$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2754,95 +2932,90 @@
     <col min="7" max="7" width="19.725" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="18.625" customWidth="1"/>
+    <col min="13" max="13" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:14">
       <c r="E1" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="M1" s="1" t="s">
-        <v>69</v>
+      <c r="M1" s="43" t="s">
+        <v>68</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:14">
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="M2" s="1" t="s">
-        <v>72</v>
+      <c r="M2" s="43" t="s">
+        <v>87</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="20" customHeight="1" spans="5:14">
       <c r="E3" s="10" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
-      <c r="M3" s="1">
+      <c r="M3" s="44">
         <v>2</v>
       </c>
       <c r="N3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="5:20">
+    <row r="4" spans="5:18">
       <c r="E4" s="3" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="J4" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M4" t="s">
-        <v>82</v>
+        <v>96</v>
+      </c>
+      <c r="M4" s="45" t="s">
+        <v>97</v>
       </c>
       <c r="N4" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="P4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R4" t="s">
-        <v>84</v>
-      </c>
-      <c r="S4" t="s">
-        <v>85</v>
-      </c>
-      <c r="T4" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="5:16">
@@ -2850,16 +3023,16 @@
         <v>11</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>88</v>
+        <v>100</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>101</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -2870,16 +3043,16 @@
         <v>11</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>92</v>
+        <v>104</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -2890,14 +3063,14 @@
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="23"/>
+        <v>108</v>
+      </c>
+      <c r="G7" s="24"/>
       <c r="H7" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="5:16">
@@ -2905,98 +3078,98 @@
         <v>11</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>99</v>
+        <v>111</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="P8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="5:15">
-      <c r="E9" s="24">
+      <c r="E9" s="25">
         <v>11</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>103</v>
+      <c r="F9" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>116</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="5:14">
-      <c r="E10" s="26">
+      <c r="E10" s="27">
         <v>11</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>107</v>
+      <c r="F10" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="5:14">
-      <c r="E11" s="26">
+      <c r="E11" s="27">
         <v>12</v>
       </c>
-      <c r="F11" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>110</v>
+      <c r="F11" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>123</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="5:20">
-      <c r="E12" s="28">
+    <row r="12" spans="5:18">
+      <c r="E12" s="29">
         <v>12</v>
       </c>
-      <c r="F12" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>113</v>
+      <c r="F12" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>126</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="T12">
+        <v>128</v>
+      </c>
+      <c r="R12">
         <v>1</v>
       </c>
     </row>
@@ -3005,16 +3178,16 @@
         <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>116</v>
+        <v>108</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="5:9">
@@ -3022,55 +3195,55 @@
         <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="5:18">
+      <c r="E15" s="29">
+        <v>12</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="5:13">
+      <c r="E16" s="31">
+        <v>12</v>
+      </c>
+      <c r="F16" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="5:20">
-      <c r="E15" s="28">
-        <v>12</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="5:13">
-      <c r="E16" s="30">
-        <v>12</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>125</v>
+      <c r="G16" s="24" t="s">
+        <v>138</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="M16">
+        <v>140</v>
+      </c>
+      <c r="M16" s="23">
         <v>1</v>
       </c>
     </row>
@@ -3079,188 +3252,188 @@
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="23"/>
+        <v>100</v>
+      </c>
+      <c r="G17" s="24"/>
       <c r="H17" s="1" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="5:15">
-      <c r="E18" s="24">
+      <c r="E18" s="25">
         <v>13</v>
       </c>
-      <c r="F18" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>103</v>
+      <c r="F18" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>116</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="5:15">
-      <c r="E19" s="24">
+      <c r="E19" s="25">
         <v>13</v>
       </c>
-      <c r="F19" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>132</v>
+      <c r="F19" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>145</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="O19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="5:12">
-      <c r="E20" s="32">
+      <c r="E20" s="33">
         <v>13</v>
       </c>
-      <c r="F20" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>135</v>
+      <c r="F20" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>148</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="5:13">
-      <c r="E21" s="30">
+      <c r="E21" s="31">
         <v>13</v>
       </c>
-      <c r="F21" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>138</v>
+      <c r="F21" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>151</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="M21">
+        <v>153</v>
+      </c>
+      <c r="M21" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="5:13">
-      <c r="E22" s="30">
+      <c r="E22" s="31">
         <v>13</v>
       </c>
-      <c r="F22" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>141</v>
+      <c r="F22" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>154</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="M22">
+        <v>156</v>
+      </c>
+      <c r="M22" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="5:15">
-      <c r="E23" s="24">
+      <c r="E23" s="25">
         <v>14</v>
       </c>
-      <c r="F23" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>132</v>
+      <c r="F23" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>145</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="O23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="5:15">
-      <c r="E24" s="24">
+      <c r="E24" s="25">
         <v>14</v>
       </c>
-      <c r="F24" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>146</v>
+      <c r="F24" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>159</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="O24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="5:9">
-      <c r="E25" s="30">
+      <c r="E25" s="31">
         <v>14</v>
       </c>
-      <c r="F25" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>141</v>
+      <c r="F25" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>154</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="5:12">
-      <c r="E26" s="32">
+      <c r="E26" s="33">
         <v>14</v>
       </c>
-      <c r="F26" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>151</v>
+      <c r="F26" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>164</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -3271,36 +3444,36 @@
         <v>14</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>154</v>
+        <v>115</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>167</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="5:12">
-      <c r="E28" s="32">
+      <c r="E28" s="33">
         <v>14</v>
       </c>
-      <c r="F28" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>157</v>
+      <c r="F28" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>170</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -3311,16 +3484,16 @@
         <v>15</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>160</v>
+        <v>100</v>
+      </c>
+      <c r="G29" s="37" t="s">
+        <v>173</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -3331,16 +3504,16 @@
         <v>15</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G30" s="35" t="s">
-        <v>163</v>
+        <v>104</v>
+      </c>
+      <c r="G30" s="37" t="s">
+        <v>176</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -3351,16 +3524,16 @@
         <v>15</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" s="35" t="s">
-        <v>160</v>
+        <v>108</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>173</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -3371,16 +3544,16 @@
         <v>15</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G32" s="36" t="s">
-        <v>168</v>
+        <v>111</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>181</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="5:9">
@@ -3388,16 +3561,16 @@
         <v>15</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G33" s="36" t="s">
-        <v>168</v>
+        <v>115</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>181</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="5:9">
@@ -3405,16 +3578,16 @@
         <v>15</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G34" s="36" t="s">
-        <v>173</v>
+        <v>119</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>186</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="5:11">
@@ -3422,36 +3595,39 @@
         <v>16</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="37" t="s">
-        <v>176</v>
+        <v>100</v>
+      </c>
+      <c r="G35" s="39" t="s">
+        <v>189</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="5:9">
+    <row r="36" spans="5:15">
       <c r="E36" s="4">
         <v>16</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="G36" s="37" t="s">
-        <v>179</v>
+        <v>104</v>
+      </c>
+      <c r="G36" s="39" t="s">
+        <v>192</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>181</v>
+        <v>194</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="5:9">
@@ -3459,14 +3635,14 @@
         <v>16</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G37" s="37"/>
+        <v>108</v>
+      </c>
+      <c r="G37" s="39"/>
       <c r="H37" s="1" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="5:9">
@@ -3474,33 +3650,33 @@
         <v>16</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G38" s="37" t="s">
-        <v>184</v>
+        <v>111</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>197</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="5:14">
-      <c r="E39" s="26">
+      <c r="E39" s="27">
         <v>16</v>
       </c>
-      <c r="F39" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="G39" s="37" t="s">
-        <v>187</v>
+      <c r="F39" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>200</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -3511,14 +3687,14 @@
         <v>16</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G40" s="34"/>
+        <v>119</v>
+      </c>
+      <c r="G40" s="36"/>
       <c r="H40" s="1" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="5:11">
@@ -3526,99 +3702,96 @@
         <v>17</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G41" s="34" t="s">
-        <v>184</v>
+        <v>100</v>
+      </c>
+      <c r="G41" s="36" t="s">
+        <v>197</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="5:20">
-      <c r="E42" s="28">
+    <row r="42" spans="5:18">
+      <c r="E42" s="29">
         <v>17</v>
       </c>
-      <c r="F42" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="G42" s="34" t="s">
-        <v>194</v>
+      <c r="F42" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" s="36" t="s">
+        <v>207</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="T42">
+        <v>209</v>
+      </c>
+      <c r="R42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="5:13">
-      <c r="E43" s="30">
+      <c r="E43" s="31">
         <v>17</v>
       </c>
-      <c r="F43" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="G43" s="34" t="s">
-        <v>197</v>
+      <c r="F43" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>210</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="L43">
+        <v>212</v>
+      </c>
+      <c r="M43" s="23">
         <v>1</v>
       </c>
-      <c r="M43">
+    </row>
+    <row r="44" spans="5:18">
+      <c r="E44" s="29">
+        <v>17</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="R44">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="5:20">
-      <c r="E44" s="28">
+    <row r="45" spans="5:9">
+      <c r="E45" s="27">
         <v>17</v>
       </c>
-      <c r="F44" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G44" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="T44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="5:9">
-      <c r="E45" s="26">
-        <v>17</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="G45" s="34" t="s">
-        <v>203</v>
+      <c r="F45" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45" s="36" t="s">
+        <v>216</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="5:16">
@@ -3626,96 +3799,96 @@
         <v>17</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G46" s="34" t="s">
-        <v>206</v>
+        <v>119</v>
+      </c>
+      <c r="G46" s="36" t="s">
+        <v>219</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="P46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="5:13">
-      <c r="E47" s="30">
+      <c r="E47" s="31">
         <v>18</v>
       </c>
-      <c r="F47" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="G47" s="34" t="s">
-        <v>209</v>
+      <c r="F47" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G47" s="36" t="s">
+        <v>222</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M47">
+        <v>224</v>
+      </c>
+      <c r="M47" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="5:20">
-      <c r="E48" s="28">
+    <row r="48" spans="5:18">
+      <c r="E48" s="29">
         <v>18</v>
       </c>
-      <c r="F48" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="G48" s="34" t="s">
-        <v>194</v>
+      <c r="F48" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" s="36" t="s">
+        <v>207</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="T48">
+        <v>226</v>
+      </c>
+      <c r="R48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="5:20">
-      <c r="E49" s="28">
+    <row r="49" spans="5:18">
+      <c r="E49" s="29">
         <v>18</v>
       </c>
-      <c r="F49" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="G49" s="36" t="s">
-        <v>214</v>
+      <c r="F49" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49" s="38" t="s">
+        <v>227</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="T49">
+        <v>229</v>
+      </c>
+      <c r="R49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="5:9">
-      <c r="E50" s="26">
+      <c r="E50" s="27">
         <v>18</v>
       </c>
-      <c r="F50" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="G50" s="36" t="s">
-        <v>217</v>
+      <c r="F50" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="G50" s="38" t="s">
+        <v>230</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="5:9">
@@ -3723,53 +3896,53 @@
         <v>18</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G51" s="35" t="s">
-        <v>220</v>
+        <v>115</v>
+      </c>
+      <c r="G51" s="37" t="s">
+        <v>233</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="5:14">
-      <c r="E52" s="38">
+      <c r="E52" s="41">
         <v>18</v>
       </c>
-      <c r="F52" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="G52" s="34" t="s">
-        <v>223</v>
+      <c r="F52" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="G52" s="36" t="s">
+        <v>236</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="N52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="5:12">
-      <c r="E53" s="32">
+      <c r="E53" s="33">
         <v>19</v>
       </c>
-      <c r="F53" s="33" t="s">
-        <v>87</v>
+      <c r="F53" s="34" t="s">
+        <v>100</v>
       </c>
       <c r="G53" s="35" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -3780,58 +3953,58 @@
         <v>19</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G54" s="35" t="s">
-        <v>229</v>
+        <v>104</v>
+      </c>
+      <c r="G54" s="37" t="s">
+        <v>242</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="P54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="5:14">
-      <c r="E55" s="26">
+      <c r="E55" s="27">
         <v>19</v>
       </c>
-      <c r="F55" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="G55" s="34" t="s">
-        <v>41</v>
+      <c r="F55" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="G55" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="N55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="5:13">
-      <c r="E56" s="30">
+      <c r="E56" s="31">
         <v>19</v>
       </c>
-      <c r="F56" s="31" t="s">
-        <v>98</v>
+      <c r="F56" s="32" t="s">
+        <v>111</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="M56">
+        <v>248</v>
+      </c>
+      <c r="M56" s="23">
         <v>1</v>
       </c>
     </row>
@@ -3840,16 +4013,16 @@
         <v>19</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G57" s="35" t="s">
-        <v>236</v>
+        <v>115</v>
+      </c>
+      <c r="G57" s="37" t="s">
+        <v>249</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -3860,257 +4033,26 @@
         <v>19</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="1" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="59" spans="5:20">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7">
       <c r="E59" s="18" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
-      <c r="J59" t="s">
-        <v>79</v>
-      </c>
-      <c r="K59" t="s">
-        <v>80</v>
-      </c>
-      <c r="L59" t="s">
-        <v>81</v>
-      </c>
-      <c r="M59" t="s">
-        <v>82</v>
-      </c>
-      <c r="N59" t="s">
-        <v>83</v>
-      </c>
-      <c r="O59" t="s">
-        <v>47</v>
-      </c>
-      <c r="P59" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>53</v>
-      </c>
-      <c r="R59" t="s">
-        <v>84</v>
-      </c>
-      <c r="S59" t="s">
-        <v>85</v>
-      </c>
-      <c r="T59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="5:17">
+    </row>
+    <row r="60" spans="5:6">
       <c r="E60" s="6"/>
       <c r="F60" s="1"/>
-      <c r="I60" t="s">
-        <v>242</v>
-      </c>
-      <c r="J60">
-        <v>10</v>
-      </c>
-      <c r="K60">
-        <v>11</v>
-      </c>
-      <c r="N60">
-        <v>12</v>
-      </c>
-      <c r="O60">
-        <v>14</v>
-      </c>
-      <c r="Q60">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="5:17">
-      <c r="E61" s="6"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="41"/>
-      <c r="I61" t="s">
-        <v>243</v>
-      </c>
-      <c r="J61">
-        <v>18</v>
-      </c>
-      <c r="K61">
-        <v>19</v>
-      </c>
-      <c r="N61">
-        <v>20</v>
-      </c>
-      <c r="O61">
-        <v>22</v>
-      </c>
-      <c r="Q61">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="5:17">
-      <c r="E62" s="6"/>
-      <c r="F62" s="1"/>
-      <c r="I62" t="s">
-        <v>244</v>
-      </c>
-      <c r="J62">
-        <v>50</v>
-      </c>
-      <c r="K62">
-        <v>51</v>
-      </c>
-      <c r="N62">
-        <v>52</v>
-      </c>
-      <c r="O62">
-        <v>54</v>
-      </c>
-      <c r="Q62">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="5:6">
-      <c r="E63" s="6"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="5:14">
-      <c r="E64" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I64" t="s">
-        <v>242</v>
-      </c>
-      <c r="N64">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="4:14">
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I65" t="s">
-        <v>243</v>
-      </c>
-      <c r="N65">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="4:14">
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F66" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="G66" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="I66" t="s">
-        <v>244</v>
-      </c>
-      <c r="N66">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="4:7">
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="5:7">
-      <c r="E68" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="5:7">
-      <c r="E69" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="5:7">
-      <c r="E70" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="F70" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="G70" s="43" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="71" spans="5:7">
-      <c r="E71" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" spans="5:7">
-      <c r="E72" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="73" spans="6:6">
-      <c r="F73" s="44" t="s">
-        <v>59</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4128,10 +4070,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E1:I34"/>
+  <dimension ref="D1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4141,44 +4083,46 @@
     <col min="7" max="7" width="19.725" customWidth="1"/>
     <col min="8" max="8" width="23.125" customWidth="1"/>
     <col min="9" max="9" width="20.625" customWidth="1"/>
+    <col min="10" max="10" width="25.75" customWidth="1"/>
+    <col min="12" max="12" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E1" s="2" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E2" s="2" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E3" s="10" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="5:9">
       <c r="E4" s="3" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="I4" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="5:9">
@@ -4186,16 +4130,16 @@
         <v>21</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="I5" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="5:9">
@@ -4203,16 +4147,16 @@
         <v>21</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="I6" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="5:9">
@@ -4220,33 +4164,36 @@
         <v>21</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="I7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="5:9">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9">
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
       <c r="E8" s="19">
         <v>21</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="I8" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="5:9">
@@ -4254,16 +4201,16 @@
         <v>21</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="I9" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="5:9">
@@ -4271,16 +4218,16 @@
         <v>21</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="I10" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="5:9">
@@ -4288,14 +4235,14 @@
         <v>22</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="I11" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="5:9">
@@ -4303,16 +4250,16 @@
         <v>22</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="I12" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="5:9">
@@ -4320,16 +4267,16 @@
         <v>22</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I13" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="5:9">
@@ -4337,16 +4284,16 @@
         <v>22</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="I14" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="5:9">
@@ -4354,14 +4301,14 @@
         <v>22</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="1" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="I15" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="5:9">
@@ -4369,16 +4316,16 @@
         <v>22</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="I16" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="5:9">
@@ -4386,16 +4333,16 @@
         <v>23</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>283</v>
+        <v>69</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="I17" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="5:9">
@@ -4403,16 +4350,16 @@
         <v>23</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>283</v>
+        <v>69</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="I18" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="5:9">
@@ -4420,16 +4367,16 @@
         <v>23</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>283</v>
+        <v>69</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="I19" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="5:9">
@@ -4437,16 +4384,16 @@
         <v>23</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="I20" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="5:9">
@@ -4454,14 +4401,14 @@
         <v>23</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="1" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="I21" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="5:9">
@@ -4469,31 +4416,43 @@
         <v>23</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="G22" s="21"/>
       <c r="H22" s="1" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="I22" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13">
       <c r="E23" s="19">
         <v>24</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="I23" t="s">
-        <v>298</v>
+        <v>307</v>
+      </c>
+      <c r="J23" t="s">
+        <v>308</v>
+      </c>
+      <c r="K23" t="s">
+        <v>309</v>
+      </c>
+      <c r="L23" t="s">
+        <v>310</v>
+      </c>
+      <c r="M23" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="5:9">
@@ -4501,16 +4460,16 @@
         <v>24</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="I24" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="5:9">
@@ -4518,16 +4477,16 @@
         <v>24</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="I25" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="5:9">
@@ -4535,16 +4494,16 @@
         <v>24</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="I26" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="5:9">
@@ -4552,16 +4511,16 @@
         <v>24</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="I27" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="5:9">
@@ -4569,16 +4528,16 @@
         <v>24</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="I28" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="5:9">
@@ -4586,16 +4545,16 @@
         <v>24</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="I29" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="5:9">
@@ -4603,21 +4562,21 @@
         <v>24</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="I30" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" s="22" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
@@ -4653,7 +4612,7 @@
   <dimension ref="D1:I16"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4667,21 +4626,21 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E1" s="2" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E2" s="2" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E3" s="10" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
@@ -4691,143 +4650,143 @@
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="I4" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="5:9">
       <c r="E5" s="13" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="I5" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="5:9">
       <c r="E6" s="2" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="I6" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="5:9">
       <c r="E7" s="2" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="I7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="5:9">
       <c r="E8" s="2" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="I8" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="5:9">
       <c r="E9" s="2" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="I9" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="5:9">
       <c r="E10" s="15" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="I10" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="4:9">
       <c r="D11" s="17" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="I11" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" s="18" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
@@ -4880,7 +4839,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E1" s="2" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -4893,35 +4852,35 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="H3" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="5:8">
       <c r="E4" s="2" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="H4" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="5:7">
       <c r="E5" s="2" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -4932,7 +4891,7 @@
     </row>
     <row r="7" spans="5:6">
       <c r="E7" s="8" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="F7" s="9"/>
     </row>
@@ -4944,12 +4903,12 @@
     </row>
     <row r="10" spans="6:6">
       <c r="F10" s="6" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="6:6">
       <c r="F11" s="6" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="6:6">
@@ -4975,7 +4934,7 @@
   <sheetPr/>
   <dimension ref="E1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -4987,13 +4946,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E1" s="2" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E2" s="2" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -5002,25 +4961,25 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="5:7">
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -5079,13 +5038,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E1" s="2" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E2" s="2" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -5094,16 +5053,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="G4" s="1"/>
     </row>

--- a/PadControl/Assets/对接协议/设备对接(带指令).xlsx
+++ b/PadControl/Assets/对接协议/设备对接(带指令).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="16845" windowHeight="9945" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="网络设备信息" sheetId="3" r:id="rId1"/>
@@ -17,12 +17,25 @@
     <sheet name="序厅LED大屏开关" sheetId="12" r:id="rId8"/>
     <sheet name="序厅电动门反馈协议" sheetId="13" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="380">
   <si>
     <t>名称</t>
   </si>
@@ -1167,7 +1180,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1219,34 +1232,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1260,14 +1245,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1307,6 +1284,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1357,7 +1349,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1426,55 +1439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1492,31 +1463,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1540,6 +1499,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1552,7 +1523,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1576,7 +1571,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1595,6 +1602,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1693,21 +1706,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1736,6 +1734,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1792,152 +1805,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2058,13 +2071,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2085,52 +2091,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2444,17 +2450,17 @@
     <col min="8" max="8" width="26.2666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" s="52" customFormat="1" ht="26.5" customHeight="1" spans="5:8">
-      <c r="E6" s="53" t="s">
+    <row r="6" s="49" customFormat="1" ht="26.5" customHeight="1" spans="5:8">
+      <c r="E6" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="50" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2614,7 +2620,7 @@
   <sheetPr/>
   <dimension ref="E6:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -2652,27 +2658,27 @@
       <c r="H7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="51">
+      <c r="I7" s="48">
         <v>18</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="48">
         <v>118</v>
       </c>
     </row>
     <row r="8" spans="6:10">
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="51">
+      <c r="I8" s="48">
         <v>19</v>
       </c>
-      <c r="J8" s="51">
+      <c r="J8" s="48">
         <v>119</v>
       </c>
     </row>
@@ -2689,10 +2695,10 @@
       <c r="H9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="48">
         <v>20</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="48">
         <v>120</v>
       </c>
     </row>
@@ -2709,10 +2715,10 @@
       <c r="H10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="51">
+      <c r="I10" s="48">
         <v>21</v>
       </c>
-      <c r="J10" s="51">
+      <c r="J10" s="48">
         <v>121</v>
       </c>
     </row>
@@ -2726,27 +2732,27 @@
       <c r="H11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="51">
+      <c r="I11" s="48">
         <v>22</v>
       </c>
-      <c r="J11" s="51">
+      <c r="J11" s="48">
         <v>122</v>
       </c>
     </row>
     <row r="12" spans="6:10">
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="51">
+      <c r="I12" s="48">
         <v>23</v>
       </c>
-      <c r="J12" s="51">
+      <c r="J12" s="48">
         <v>123</v>
       </c>
     </row>
@@ -2760,10 +2766,10 @@
       <c r="H13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="48">
         <v>24</v>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="48">
         <v>124</v>
       </c>
     </row>
@@ -2780,15 +2786,15 @@
       <c r="H14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="51">
+      <c r="I14" s="48">
         <v>25</v>
       </c>
-      <c r="J14" s="51">
+      <c r="J14" s="48">
         <v>125</v>
       </c>
     </row>
     <row r="15" spans="7:7">
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="47" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2813,10 +2819,10 @@
       <c r="H20" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="51">
+      <c r="I20" s="48">
         <v>28</v>
       </c>
-      <c r="J20" s="51">
+      <c r="J20" s="48">
         <v>128</v>
       </c>
     </row>
@@ -2833,10 +2839,10 @@
       <c r="H21" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="51">
+      <c r="I21" s="48">
         <v>29</v>
       </c>
-      <c r="J21" s="51">
+      <c r="J21" s="48">
         <v>129</v>
       </c>
     </row>
@@ -2890,18 +2896,18 @@
       </c>
     </row>
     <row r="5" spans="5:6">
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6" spans="5:6">
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="44" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2919,10 +2925,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E1:R60"/>
+  <dimension ref="E1:Q60"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="R1" sqref="R$1:R$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q$1:Q$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2967,14 +2973,14 @@
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
-      <c r="M3" s="44">
+      <c r="M3" s="43">
         <v>2</v>
       </c>
       <c r="N3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="5:18">
+    <row r="4" spans="5:17">
       <c r="E4" s="3" t="s">
         <v>90</v>
       </c>
@@ -2999,7 +3005,7 @@
       <c r="L4" t="s">
         <v>96</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="23" t="s">
         <v>97</v>
       </c>
       <c r="N4" t="s">
@@ -3012,9 +3018,6 @@
         <v>54</v>
       </c>
       <c r="Q4" t="s">
-        <v>57</v>
-      </c>
-      <c r="R4" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3153,7 +3156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="5:18">
+    <row r="12" spans="5:17">
       <c r="E12" s="29">
         <v>12</v>
       </c>
@@ -3169,7 +3172,7 @@
       <c r="I12" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="R12">
+      <c r="Q12">
         <v>1</v>
       </c>
     </row>
@@ -3207,7 +3210,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="5:18">
+    <row r="15" spans="5:17">
       <c r="E15" s="29">
         <v>12</v>
       </c>
@@ -3223,7 +3226,7 @@
       <c r="I15" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="R15">
+      <c r="Q15">
         <v>1</v>
       </c>
     </row>
@@ -3717,7 +3720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="5:18">
+    <row r="42" spans="5:17">
       <c r="E42" s="29">
         <v>17</v>
       </c>
@@ -3733,7 +3736,7 @@
       <c r="I42" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="R42">
+      <c r="Q42">
         <v>1</v>
       </c>
     </row>
@@ -3757,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="5:18">
+    <row r="44" spans="5:17">
       <c r="E44" s="29">
         <v>17</v>
       </c>
@@ -3773,7 +3776,7 @@
       <c r="I44" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="R44">
+      <c r="Q44">
         <v>1</v>
       </c>
     </row>
@@ -3834,7 +3837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="5:18">
+    <row r="48" spans="5:17">
       <c r="E48" s="29">
         <v>18</v>
       </c>
@@ -3850,11 +3853,11 @@
       <c r="I48" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="R48">
+      <c r="Q48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="5:18">
+    <row r="49" spans="5:17">
       <c r="E49" s="29">
         <v>18</v>
       </c>
@@ -3870,7 +3873,7 @@
       <c r="I49" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="R49">
+      <c r="Q49">
         <v>1</v>
       </c>
     </row>

--- a/PadControl/Assets/对接协议/设备对接(带指令).xlsx
+++ b/PadControl/Assets/对接协议/设备对接(带指令).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16845" windowHeight="9945" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="网络设备信息" sheetId="3" r:id="rId1"/>
@@ -17,25 +17,12 @@
     <sheet name="序厅LED大屏开关" sheetId="12" r:id="rId8"/>
     <sheet name="序厅电动门反馈协议" sheetId="13" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="379">
   <si>
     <t>名称</t>
   </si>
@@ -253,7 +240,7 @@
     <t>寻迹2</t>
   </si>
   <si>
-    <t>密电风云</t>
+    <t>密电风暴</t>
   </si>
   <si>
     <t>192.168.3.29</t>
@@ -296,9 +283,6 @@
   </si>
   <si>
     <t>IP：192.168.3.9 端口：20001</t>
-  </si>
-  <si>
-    <t>密电风暴</t>
   </si>
   <si>
     <t>无线电频谱</t>
@@ -1180,7 +1164,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1232,6 +1216,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1245,6 +1257,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1284,21 +1304,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1349,28 +1354,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1439,13 +1423,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1463,19 +1489,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1499,18 +1537,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1523,31 +1549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1571,19 +1573,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1602,12 +1592,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1706,6 +1690,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1734,21 +1733,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1805,148 +1789,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2091,52 +2075,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2620,8 +2604,8 @@
   <sheetPr/>
   <dimension ref="E6:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2927,7 +2911,7 @@
   <sheetPr/>
   <dimension ref="E1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q$1:Q$1048576"/>
     </sheetView>
   </sheetViews>
@@ -2961,15 +2945,15 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="M2" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="20" customHeight="1" spans="5:14">
       <c r="E3" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -2982,34 +2966,34 @@
     </row>
     <row r="4" spans="5:17">
       <c r="E4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" t="s">
         <v>92</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>93</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>94</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>95</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="N4" t="s">
         <v>97</v>
-      </c>
-      <c r="N4" t="s">
-        <v>98</v>
       </c>
       <c r="O4" t="s">
         <v>51</v>
@@ -3018,7 +3002,7 @@
         <v>54</v>
       </c>
       <c r="Q4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="5:16">
@@ -3026,16 +3010,16 @@
         <v>11</v>
       </c>
       <c r="F5" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="H5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -3046,16 +3030,16 @@
         <v>11</v>
       </c>
       <c r="F6" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="H6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -3066,14 +3050,14 @@
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G7" s="24"/>
       <c r="H7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="5:16">
@@ -3081,16 +3065,16 @@
         <v>11</v>
       </c>
       <c r="F8" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="H8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -3101,16 +3085,16 @@
         <v>11</v>
       </c>
       <c r="F9" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="H9" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -3121,16 +3105,16 @@
         <v>11</v>
       </c>
       <c r="F10" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="H10" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -3141,16 +3125,16 @@
         <v>12</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G11" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -3161,16 +3145,16 @@
         <v>12</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G12" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -3181,16 +3165,16 @@
         <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G13" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="14" spans="5:9">
@@ -3198,16 +3182,16 @@
         <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G14" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="15" spans="5:17">
@@ -3215,16 +3199,16 @@
         <v>12</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G15" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -3235,16 +3219,16 @@
         <v>12</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G16" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="M16" s="23">
         <v>1</v>
@@ -3255,14 +3239,14 @@
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="18" spans="5:15">
@@ -3270,16 +3254,16 @@
         <v>13</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -3290,16 +3274,16 @@
         <v>13</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G19" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -3310,16 +3294,16 @@
         <v>13</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G20" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -3330,16 +3314,16 @@
         <v>13</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G21" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="M21" s="23">
         <v>1</v>
@@ -3350,16 +3334,16 @@
         <v>13</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G22" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="23">
         <v>1</v>
@@ -3370,16 +3354,16 @@
         <v>14</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -3390,16 +3374,16 @@
         <v>14</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G24" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -3410,16 +3394,16 @@
         <v>14</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="26" spans="5:12">
@@ -3427,16 +3411,16 @@
         <v>14</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G26" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -3447,16 +3431,16 @@
         <v>14</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G27" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -3467,16 +3451,16 @@
         <v>14</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G28" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -3487,16 +3471,16 @@
         <v>15</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G29" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -3507,16 +3491,16 @@
         <v>15</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G30" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -3527,16 +3511,16 @@
         <v>15</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -3547,16 +3531,16 @@
         <v>15</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G32" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="33" spans="5:9">
@@ -3564,16 +3548,16 @@
         <v>15</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="34" spans="5:9">
@@ -3581,16 +3565,16 @@
         <v>15</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G34" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="35" spans="5:11">
@@ -3598,16 +3582,16 @@
         <v>16</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G35" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -3618,16 +3602,16 @@
         <v>16</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G36" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -3638,14 +3622,14 @@
         <v>16</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G37" s="39"/>
       <c r="H37" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="38" spans="5:9">
@@ -3653,16 +3637,16 @@
         <v>16</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G38" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="39" spans="5:14">
@@ -3670,16 +3654,16 @@
         <v>16</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G39" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -3690,14 +3674,14 @@
         <v>16</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G40" s="36"/>
       <c r="H40" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="41" spans="5:11">
@@ -3705,16 +3689,16 @@
         <v>17</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H41" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -3725,16 +3709,16 @@
         <v>17</v>
       </c>
       <c r="F42" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G42" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="Q42">
         <v>1</v>
@@ -3745,16 +3729,16 @@
         <v>17</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G43" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="M43" s="23">
         <v>1</v>
@@ -3765,16 +3749,16 @@
         <v>17</v>
       </c>
       <c r="F44" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G44" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="Q44">
         <v>1</v>
@@ -3785,16 +3769,16 @@
         <v>17</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G45" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="46" spans="5:16">
@@ -3802,16 +3786,16 @@
         <v>17</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G46" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="P46">
         <v>1</v>
@@ -3822,16 +3806,16 @@
         <v>18</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G47" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="M47" s="23">
         <v>1</v>
@@ -3842,16 +3826,16 @@
         <v>18</v>
       </c>
       <c r="F48" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -3862,16 +3846,16 @@
         <v>18</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G49" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="Q49">
         <v>1</v>
@@ -3882,16 +3866,16 @@
         <v>18</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G50" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="51" spans="5:9">
@@ -3899,16 +3883,16 @@
         <v>18</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G51" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="52" spans="5:14">
@@ -3916,16 +3900,16 @@
         <v>18</v>
       </c>
       <c r="F52" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G52" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3936,16 +3920,16 @@
         <v>19</v>
       </c>
       <c r="F53" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G53" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -3956,16 +3940,16 @@
         <v>19</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G54" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="P54">
         <v>1</v>
@@ -3976,16 +3960,16 @@
         <v>19</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G55" s="36" t="s">
         <v>44</v>
       </c>
       <c r="H55" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3996,16 +3980,16 @@
         <v>19</v>
       </c>
       <c r="F56" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H56" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="M56" s="23">
         <v>1</v>
@@ -4016,16 +4000,16 @@
         <v>19</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G57" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -4036,19 +4020,19 @@
         <v>19</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
@@ -4092,40 +4076,40 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E1" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E2" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E3" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="5:9">
       <c r="E4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I4" t="s">
         <v>257</v>
-      </c>
-      <c r="I4" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="5" spans="5:9">
@@ -4133,16 +4117,16 @@
         <v>21</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" t="s">
         <v>260</v>
-      </c>
-      <c r="I5" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="6" spans="5:9">
@@ -4150,16 +4134,16 @@
         <v>21</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G6" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" t="s">
         <v>263</v>
-      </c>
-      <c r="I6" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="7" spans="5:9">
@@ -4167,16 +4151,16 @@
         <v>21</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G7" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" t="s">
         <v>266</v>
-      </c>
-      <c r="I7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="8" spans="4:9">
@@ -4187,16 +4171,16 @@
         <v>21</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G8" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" t="s">
         <v>269</v>
-      </c>
-      <c r="I8" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="9" spans="5:9">
@@ -4204,16 +4188,16 @@
         <v>21</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G9" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" t="s">
         <v>272</v>
-      </c>
-      <c r="I9" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="10" spans="5:9">
@@ -4221,16 +4205,16 @@
         <v>21</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G10" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" t="s">
         <v>275</v>
-      </c>
-      <c r="I10" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="11" spans="5:9">
@@ -4238,14 +4222,14 @@
         <v>22</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I11" t="s">
         <v>277</v>
-      </c>
-      <c r="I11" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="12" spans="5:9">
@@ -4253,16 +4237,16 @@
         <v>22</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G12" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" t="s">
         <v>280</v>
-      </c>
-      <c r="I12" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="13" spans="5:9">
@@ -4270,16 +4254,16 @@
         <v>22</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G13" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" t="s">
         <v>283</v>
-      </c>
-      <c r="I13" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="14" spans="5:9">
@@ -4287,16 +4271,16 @@
         <v>22</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G14" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" t="s">
         <v>286</v>
-      </c>
-      <c r="I14" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="15" spans="5:9">
@@ -4304,14 +4288,14 @@
         <v>22</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I15" t="s">
         <v>288</v>
-      </c>
-      <c r="I15" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="16" spans="5:9">
@@ -4319,16 +4303,16 @@
         <v>22</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G16" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" t="s">
         <v>291</v>
-      </c>
-      <c r="I16" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="17" spans="5:9">
@@ -4336,16 +4320,16 @@
         <v>23</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>69</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I17" t="s">
         <v>293</v>
-      </c>
-      <c r="I17" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="18" spans="5:9">
@@ -4353,16 +4337,16 @@
         <v>23</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>69</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I18" t="s">
         <v>295</v>
-      </c>
-      <c r="I18" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="19" spans="5:9">
@@ -4370,16 +4354,16 @@
         <v>23</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>69</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I19" t="s">
         <v>297</v>
-      </c>
-      <c r="I19" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="20" spans="5:9">
@@ -4387,16 +4371,16 @@
         <v>23</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I20" t="s">
         <v>299</v>
-      </c>
-      <c r="I20" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="21" spans="5:9">
@@ -4404,14 +4388,14 @@
         <v>23</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I21" t="s">
         <v>301</v>
-      </c>
-      <c r="I21" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="22" spans="5:9">
@@ -4419,14 +4403,14 @@
         <v>23</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G22" s="21"/>
       <c r="H22" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I22" t="s">
         <v>303</v>
-      </c>
-      <c r="I22" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="23" spans="5:13">
@@ -4434,28 +4418,28 @@
         <v>24</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G23" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" t="s">
         <v>306</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>307</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>308</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>309</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>310</v>
-      </c>
-      <c r="M23" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="24" spans="5:9">
@@ -4463,16 +4447,16 @@
         <v>24</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G24" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" t="s">
         <v>313</v>
-      </c>
-      <c r="I24" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="25" spans="5:9">
@@ -4480,16 +4464,16 @@
         <v>24</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G25" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" t="s">
         <v>316</v>
-      </c>
-      <c r="I25" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="26" spans="5:9">
@@ -4497,16 +4481,16 @@
         <v>24</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G26" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" t="s">
         <v>319</v>
-      </c>
-      <c r="I26" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="27" spans="5:9">
@@ -4514,16 +4498,16 @@
         <v>24</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G27" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" t="s">
         <v>322</v>
-      </c>
-      <c r="I27" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="28" spans="5:9">
@@ -4531,16 +4515,16 @@
         <v>24</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G28" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" t="s">
         <v>325</v>
-      </c>
-      <c r="I28" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="29" spans="5:9">
@@ -4548,16 +4532,16 @@
         <v>24</v>
       </c>
       <c r="F29" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="G29" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="H29" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" t="s">
         <v>329</v>
-      </c>
-      <c r="I29" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="30" spans="5:9">
@@ -4565,21 +4549,21 @@
         <v>24</v>
       </c>
       <c r="F30" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="G30" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="H30" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" t="s">
         <v>333</v>
-      </c>
-      <c r="I30" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
@@ -4629,21 +4613,21 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E1" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E2" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E3" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
@@ -4653,143 +4637,143 @@
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="5:9">
       <c r="E5" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="G5" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" t="s">
         <v>340</v>
-      </c>
-      <c r="I5" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="6" spans="5:9">
       <c r="E6" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" t="s">
         <v>343</v>
-      </c>
-      <c r="I6" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="7" spans="5:9">
       <c r="E7" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" t="s">
         <v>346</v>
-      </c>
-      <c r="I7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="8" spans="5:9">
       <c r="E8" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" t="s">
         <v>349</v>
-      </c>
-      <c r="I8" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="9" spans="5:9">
       <c r="E9" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" t="s">
         <v>352</v>
-      </c>
-      <c r="I9" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="10" spans="5:9">
       <c r="E10" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" t="s">
         <v>355</v>
-      </c>
-      <c r="I10" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="11" spans="4:9">
       <c r="D11" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>359</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I11" t="s">
         <v>193</v>
-      </c>
-      <c r="I11" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
@@ -4842,7 +4826,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E1" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -4855,35 +4839,35 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="H3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="5:8">
       <c r="E4" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" t="s">
         <v>365</v>
-      </c>
-      <c r="H4" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="5" spans="5:7">
       <c r="E5" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>368</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -4894,7 +4878,7 @@
     </row>
     <row r="7" spans="5:6">
       <c r="E7" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F7" s="9"/>
     </row>
@@ -4906,12 +4890,12 @@
     </row>
     <row r="10" spans="6:6">
       <c r="F10" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="6:6">
       <c r="F11" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="6:6">
@@ -4949,13 +4933,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E1" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E2" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -4964,16 +4948,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>374</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -4982,7 +4966,7 @@
         <v>78</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -5041,13 +5025,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E1" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E2" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -5056,16 +5040,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>379</v>
       </c>
       <c r="G4" s="1"/>
     </row>

--- a/PadControl/Assets/对接协议/设备对接(带指令).xlsx
+++ b/PadControl/Assets/对接协议/设备对接(带指令).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="16845" windowHeight="9945" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="网络设备信息" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,20 @@
     <sheet name="序厅LED大屏开关" sheetId="12" r:id="rId8"/>
     <sheet name="序厅电动门反馈协议" sheetId="13" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -588,7 +601,7 @@
     <t>0F 06 00 08 00 00</t>
   </si>
   <si>
-    <t>序厅广告字</t>
+    <t>逐梦广告字</t>
   </si>
   <si>
     <t>10 06 00 03 00 01</t>
@@ -1164,7 +1177,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1216,34 +1229,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1257,14 +1242,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1304,6 +1281,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1354,7 +1346,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1423,55 +1436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1489,31 +1460,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,6 +1496,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1549,7 +1520,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1573,7 +1568,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1592,6 +1599,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,21 +1703,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1733,6 +1731,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1789,152 +1802,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2040,6 +2053,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2075,52 +2091,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2434,17 +2450,17 @@
     <col min="8" max="8" width="26.2666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" s="49" customFormat="1" ht="26.5" customHeight="1" spans="5:8">
-      <c r="E6" s="50" t="s">
+    <row r="6" s="50" customFormat="1" ht="26.5" customHeight="1" spans="5:8">
+      <c r="E6" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="51" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2604,7 +2620,7 @@
   <sheetPr/>
   <dimension ref="E6:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -2642,27 +2658,27 @@
       <c r="H7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="48">
+      <c r="I7" s="49">
         <v>18</v>
       </c>
-      <c r="J7" s="48">
+      <c r="J7" s="49">
         <v>118</v>
       </c>
     </row>
     <row r="8" spans="6:10">
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="49">
         <v>19</v>
       </c>
-      <c r="J8" s="48">
+      <c r="J8" s="49">
         <v>119</v>
       </c>
     </row>
@@ -2679,10 +2695,10 @@
       <c r="H9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="49">
         <v>20</v>
       </c>
-      <c r="J9" s="48">
+      <c r="J9" s="49">
         <v>120</v>
       </c>
     </row>
@@ -2699,10 +2715,10 @@
       <c r="H10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="49">
         <v>21</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="49">
         <v>121</v>
       </c>
     </row>
@@ -2716,27 +2732,27 @@
       <c r="H11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="49">
         <v>22</v>
       </c>
-      <c r="J11" s="48">
+      <c r="J11" s="49">
         <v>122</v>
       </c>
     </row>
     <row r="12" spans="6:10">
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="46" t="s">
+      <c r="H12" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="48">
+      <c r="I12" s="49">
         <v>23</v>
       </c>
-      <c r="J12" s="48">
+      <c r="J12" s="49">
         <v>123</v>
       </c>
     </row>
@@ -2750,10 +2766,10 @@
       <c r="H13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="49">
         <v>24</v>
       </c>
-      <c r="J13" s="48">
+      <c r="J13" s="49">
         <v>124</v>
       </c>
     </row>
@@ -2770,15 +2786,15 @@
       <c r="H14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="49">
         <v>25</v>
       </c>
-      <c r="J14" s="48">
+      <c r="J14" s="49">
         <v>125</v>
       </c>
     </row>
     <row r="15" spans="7:7">
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="48" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2803,10 +2819,10 @@
       <c r="H20" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="48">
+      <c r="I20" s="49">
         <v>28</v>
       </c>
-      <c r="J20" s="48">
+      <c r="J20" s="49">
         <v>128</v>
       </c>
     </row>
@@ -2823,10 +2839,10 @@
       <c r="H21" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="48">
+      <c r="I21" s="49">
         <v>29</v>
       </c>
-      <c r="J21" s="48">
+      <c r="J21" s="49">
         <v>129</v>
       </c>
     </row>
@@ -2891,7 +2907,7 @@
       <c r="E6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="45" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2911,8 +2927,8 @@
   <sheetPr/>
   <dimension ref="E1:Q60"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q$1:Q$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2931,7 +2947,7 @@
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="44" t="s">
         <v>68</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -2944,7 +2960,7 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="44" t="s">
         <v>72</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -2957,7 +2973,7 @@
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
-      <c r="M3" s="43">
+      <c r="M3" s="44">
         <v>2</v>
       </c>
       <c r="N3" s="1">
@@ -3604,7 +3620,7 @@
       <c r="F36" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="G36" s="39" t="s">
+      <c r="G36" s="40" t="s">
         <v>191</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -3624,7 +3640,7 @@
       <c r="F37" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G37" s="39"/>
+      <c r="G37" s="40"/>
       <c r="H37" s="1" t="s">
         <v>194</v>
       </c>
@@ -3632,14 +3648,14 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="5:9">
+    <row r="38" spans="5:11">
       <c r="E38" s="4">
         <v>16</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G38" s="39" t="s">
+      <c r="G38" s="40" t="s">
         <v>196</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -3647,6 +3663,9 @@
       </c>
       <c r="I38" s="1" t="s">
         <v>198</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="5:14">
@@ -3656,7 +3675,7 @@
       <c r="F39" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="G39" s="39" t="s">
+      <c r="G39" s="40" t="s">
         <v>199</v>
       </c>
       <c r="H39" s="1" t="s">
@@ -3731,7 +3750,7 @@
       <c r="F43" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="G43" s="40" t="s">
+      <c r="G43" s="41" t="s">
         <v>209</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -3896,10 +3915,10 @@
       </c>
     </row>
     <row r="52" spans="5:14">
-      <c r="E52" s="41">
+      <c r="E52" s="42">
         <v>18</v>
       </c>
-      <c r="F52" s="42" t="s">
+      <c r="F52" s="43" t="s">
         <v>118</v>
       </c>
       <c r="G52" s="36" t="s">
@@ -3982,7 +4001,7 @@
       <c r="F56" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="G56" s="40" t="s">
+      <c r="G56" s="41" t="s">
         <v>221</v>
       </c>
       <c r="H56" s="1" t="s">

--- a/PadControl/Assets/对接协议/设备对接(带指令).xlsx
+++ b/PadControl/Assets/对接协议/设备对接(带指令).xlsx
@@ -2927,8 +2927,8 @@
   <sheetPr/>
   <dimension ref="E1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="D23" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/PadControl/Assets/对接协议/设备对接(带指令).xlsx
+++ b/PadControl/Assets/对接协议/设备对接(带指令).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16845" windowHeight="9945" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="16845" windowHeight="9945" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="网络设备信息" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="380">
   <si>
     <t>名称</t>
   </si>
@@ -865,6 +865,9 @@
     <t>15 06 00 08 00 00</t>
   </si>
   <si>
+    <t>过道筒灯</t>
+  </si>
+  <si>
     <t>16 06 00 03 00 01</t>
   </si>
   <si>
@@ -889,9 +892,6 @@
     <t>16 06 00 05 00 00</t>
   </si>
   <si>
-    <t>过道筒灯</t>
-  </si>
-  <si>
     <t>16 06 00 06 00 01</t>
   </si>
   <si>
@@ -943,6 +943,9 @@
     <t>17 06 00 07 00 00</t>
   </si>
   <si>
+    <t>风机</t>
+  </si>
+  <si>
     <t>17 06 00 08 00 01</t>
   </si>
   <si>
@@ -1087,16 +1090,28 @@
     <t>1F 06 00 06 00 00</t>
   </si>
   <si>
+    <r>
+      <t>强策</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大屏</t>
+    </r>
+  </si>
+  <si>
+    <t>1F 06 00 07 00 01</t>
+  </si>
+  <si>
+    <t>1F 06 00 07 00 00</t>
+  </si>
+  <si>
     <t>全息LED大屏2</t>
-  </si>
-  <si>
-    <t>1F 06 00 07 00 01</t>
-  </si>
-  <si>
-    <t>1F 06 00 07 00 00</t>
-  </si>
-  <si>
-    <t>强策LED大屏</t>
   </si>
   <si>
     <t>1F 06 00 08 00 01</t>
@@ -1202,6 +1217,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1209,13 +1231,6 @@
     <font>
       <sz val="11"/>
       <color theme="5"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1947,7 +1962,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1987,6 +2002,9 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2009,7 +2027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2043,34 +2061,34 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2450,17 +2468,17 @@
     <col min="8" max="8" width="26.2666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" s="50" customFormat="1" ht="26.5" customHeight="1" spans="5:8">
-      <c r="E6" s="51" t="s">
+    <row r="6" s="51" customFormat="1" ht="26.5" customHeight="1" spans="5:8">
+      <c r="E6" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="52" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2621,7 +2639,7 @@
   <dimension ref="E6:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2658,27 +2676,27 @@
       <c r="H7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I7" s="50">
         <v>18</v>
       </c>
-      <c r="J7" s="49">
+      <c r="J7" s="50">
         <v>118</v>
       </c>
     </row>
     <row r="8" spans="6:10">
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="49">
+      <c r="I8" s="50">
         <v>19</v>
       </c>
-      <c r="J8" s="49">
+      <c r="J8" s="50">
         <v>119</v>
       </c>
     </row>
@@ -2695,10 +2713,10 @@
       <c r="H9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="50">
         <v>20</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="50">
         <v>120</v>
       </c>
     </row>
@@ -2715,10 +2733,10 @@
       <c r="H10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I10" s="50">
         <v>21</v>
       </c>
-      <c r="J10" s="49">
+      <c r="J10" s="50">
         <v>121</v>
       </c>
     </row>
@@ -2732,27 +2750,27 @@
       <c r="H11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="49">
+      <c r="I11" s="50">
         <v>22</v>
       </c>
-      <c r="J11" s="49">
+      <c r="J11" s="50">
         <v>122</v>
       </c>
     </row>
     <row r="12" spans="6:10">
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="47" t="s">
+      <c r="H12" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="49">
+      <c r="I12" s="50">
         <v>23</v>
       </c>
-      <c r="J12" s="49">
+      <c r="J12" s="50">
         <v>123</v>
       </c>
     </row>
@@ -2766,10 +2784,10 @@
       <c r="H13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="49">
+      <c r="I13" s="50">
         <v>24</v>
       </c>
-      <c r="J13" s="49">
+      <c r="J13" s="50">
         <v>124</v>
       </c>
     </row>
@@ -2786,15 +2804,15 @@
       <c r="H14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="49">
+      <c r="I14" s="50">
         <v>25</v>
       </c>
-      <c r="J14" s="49">
+      <c r="J14" s="50">
         <v>125</v>
       </c>
     </row>
     <row r="15" spans="7:7">
-      <c r="G15" s="48" t="s">
+      <c r="G15" s="49" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2819,10 +2837,10 @@
       <c r="H20" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="49">
+      <c r="I20" s="50">
         <v>28</v>
       </c>
-      <c r="J20" s="49">
+      <c r="J20" s="50">
         <v>128</v>
       </c>
     </row>
@@ -2839,10 +2857,10 @@
       <c r="H21" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="49">
+      <c r="I21" s="50">
         <v>29</v>
       </c>
-      <c r="J21" s="49">
+      <c r="J21" s="50">
         <v>129</v>
       </c>
     </row>
@@ -2907,7 +2925,7 @@
       <c r="E6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="46" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2927,8 +2945,8 @@
   <sheetPr/>
   <dimension ref="E1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D23" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2938,7 +2956,7 @@
     <col min="7" max="7" width="19.725" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="18.625" customWidth="1"/>
-    <col min="13" max="13" width="9" style="23"/>
+    <col min="13" max="13" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:14">
@@ -2947,7 +2965,7 @@
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="45" t="s">
         <v>68</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -2960,7 +2978,7 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="45" t="s">
         <v>72</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -2973,7 +2991,7 @@
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
-      <c r="M3" s="44">
+      <c r="M3" s="45">
         <v>2</v>
       </c>
       <c r="N3" s="1">
@@ -3005,7 +3023,7 @@
       <c r="L4" t="s">
         <v>95</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="24" t="s">
         <v>96</v>
       </c>
       <c r="N4" t="s">
@@ -3022,13 +3040,13 @@
       </c>
     </row>
     <row r="5" spans="5:16">
-      <c r="E5" s="16">
+      <c r="E5" s="17">
         <v>11</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="25" t="s">
         <v>100</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -3042,13 +3060,13 @@
       </c>
     </row>
     <row r="6" spans="5:16">
-      <c r="E6" s="16">
+      <c r="E6" s="17">
         <v>11</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="25" t="s">
         <v>104</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -3068,7 +3086,7 @@
       <c r="F7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="24"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="1" t="s">
         <v>108</v>
       </c>
@@ -3077,13 +3095,13 @@
       </c>
     </row>
     <row r="8" spans="5:16">
-      <c r="E8" s="16">
+      <c r="E8" s="17">
         <v>11</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="25" t="s">
         <v>111</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -3097,13 +3115,13 @@
       </c>
     </row>
     <row r="9" spans="5:15">
-      <c r="E9" s="25">
+      <c r="E9" s="26">
         <v>11</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="25" t="s">
         <v>115</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -3117,13 +3135,13 @@
       </c>
     </row>
     <row r="10" spans="5:14">
-      <c r="E10" s="27">
+      <c r="E10" s="28">
         <v>11</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="25" t="s">
         <v>119</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -3137,13 +3155,13 @@
       </c>
     </row>
     <row r="11" spans="5:14">
-      <c r="E11" s="27">
+      <c r="E11" s="28">
         <v>12</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="25" t="s">
         <v>122</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -3157,13 +3175,13 @@
       </c>
     </row>
     <row r="12" spans="5:17">
-      <c r="E12" s="29">
+      <c r="E12" s="30">
         <v>12</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="25" t="s">
         <v>125</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -3183,7 +3201,7 @@
       <c r="F13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="25" t="s">
         <v>128</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -3200,7 +3218,7 @@
       <c r="F14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="25" t="s">
         <v>131</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -3211,13 +3229,13 @@
       </c>
     </row>
     <row r="15" spans="5:17">
-      <c r="E15" s="29">
+      <c r="E15" s="30">
         <v>12</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="25" t="s">
         <v>134</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -3231,13 +3249,13 @@
       </c>
     </row>
     <row r="16" spans="5:13">
-      <c r="E16" s="31">
+      <c r="E16" s="32">
         <v>12</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="25" t="s">
         <v>137</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -3246,7 +3264,7 @@
       <c r="I16" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="24">
         <v>1</v>
       </c>
     </row>
@@ -3257,7 +3275,7 @@
       <c r="F17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="24"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="1" t="s">
         <v>140</v>
       </c>
@@ -3266,13 +3284,13 @@
       </c>
     </row>
     <row r="18" spans="5:15">
-      <c r="E18" s="25">
+      <c r="E18" s="26">
         <v>13</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="25" t="s">
         <v>115</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -3286,13 +3304,13 @@
       </c>
     </row>
     <row r="19" spans="5:15">
-      <c r="E19" s="25">
+      <c r="E19" s="26">
         <v>13</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="25" t="s">
         <v>144</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -3306,13 +3324,13 @@
       </c>
     </row>
     <row r="20" spans="5:12">
-      <c r="E20" s="33">
+      <c r="E20" s="34">
         <v>13</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="36" t="s">
         <v>147</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -3326,13 +3344,13 @@
       </c>
     </row>
     <row r="21" spans="5:13">
-      <c r="E21" s="31">
+      <c r="E21" s="32">
         <v>13</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="37" t="s">
         <v>150</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -3341,18 +3359,18 @@
       <c r="I21" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="5:13">
-      <c r="E22" s="31">
+      <c r="E22" s="32">
         <v>13</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="37" t="s">
         <v>153</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -3361,18 +3379,18 @@
       <c r="I22" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="M22" s="23">
+      <c r="M22" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="5:15">
-      <c r="E23" s="25">
+      <c r="E23" s="26">
         <v>14</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="37" t="s">
         <v>144</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -3386,13 +3404,13 @@
       </c>
     </row>
     <row r="24" spans="5:15">
-      <c r="E24" s="25">
+      <c r="E24" s="26">
         <v>14</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="37" t="s">
         <v>158</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -3406,13 +3424,13 @@
       </c>
     </row>
     <row r="25" spans="5:9">
-      <c r="E25" s="31">
+      <c r="E25" s="32">
         <v>14</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="37" t="s">
         <v>153</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -3423,13 +3441,13 @@
       </c>
     </row>
     <row r="26" spans="5:12">
-      <c r="E26" s="33">
+      <c r="E26" s="34">
         <v>14</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="G26" s="35" t="s">
+      <c r="G26" s="36" t="s">
         <v>163</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -3449,7 +3467,7 @@
       <c r="F27" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G27" s="36" t="s">
+      <c r="G27" s="37" t="s">
         <v>166</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -3463,13 +3481,13 @@
       </c>
     </row>
     <row r="28" spans="5:12">
-      <c r="E28" s="33">
+      <c r="E28" s="34">
         <v>14</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="F28" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="36" t="s">
         <v>169</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -3489,7 +3507,7 @@
       <c r="F29" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="38" t="s">
         <v>172</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -3509,7 +3527,7 @@
       <c r="F30" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="G30" s="37" t="s">
+      <c r="G30" s="38" t="s">
         <v>175</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -3529,7 +3547,7 @@
       <c r="F31" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="G31" s="37" t="s">
+      <c r="G31" s="38" t="s">
         <v>172</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -3549,7 +3567,7 @@
       <c r="F32" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G32" s="38" t="s">
+      <c r="G32" s="39" t="s">
         <v>180</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -3566,7 +3584,7 @@
       <c r="F33" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G33" s="38" t="s">
+      <c r="G33" s="39" t="s">
         <v>180</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -3583,7 +3601,7 @@
       <c r="F34" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G34" s="38" t="s">
+      <c r="G34" s="39" t="s">
         <v>185</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -3600,7 +3618,7 @@
       <c r="F35" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G35" s="39" t="s">
+      <c r="G35" s="40" t="s">
         <v>188</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -3617,10 +3635,10 @@
       <c r="E36" s="4">
         <v>16</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="G36" s="40" t="s">
+      <c r="G36" s="41" t="s">
         <v>191</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -3640,7 +3658,7 @@
       <c r="F37" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G37" s="40"/>
+      <c r="G37" s="41"/>
       <c r="H37" s="1" t="s">
         <v>194</v>
       </c>
@@ -3655,7 +3673,7 @@
       <c r="F38" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G38" s="40" t="s">
+      <c r="G38" s="41" t="s">
         <v>196</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -3669,13 +3687,13 @@
       </c>
     </row>
     <row r="39" spans="5:14">
-      <c r="E39" s="27">
+      <c r="E39" s="28">
         <v>16</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="G39" s="40" t="s">
+      <c r="G39" s="41" t="s">
         <v>199</v>
       </c>
       <c r="H39" s="1" t="s">
@@ -3695,7 +3713,7 @@
       <c r="F40" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G40" s="36"/>
+      <c r="G40" s="37"/>
       <c r="H40" s="1" t="s">
         <v>202</v>
       </c>
@@ -3710,7 +3728,7 @@
       <c r="F41" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G41" s="36" t="s">
+      <c r="G41" s="37" t="s">
         <v>196</v>
       </c>
       <c r="H41" s="1" t="s">
@@ -3724,13 +3742,13 @@
       </c>
     </row>
     <row r="42" spans="5:17">
-      <c r="E42" s="29">
+      <c r="E42" s="30">
         <v>17</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="F42" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="G42" s="36" t="s">
+      <c r="G42" s="37" t="s">
         <v>206</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -3744,13 +3762,13 @@
       </c>
     </row>
     <row r="43" spans="5:13">
-      <c r="E43" s="31">
+      <c r="E43" s="32">
         <v>17</v>
       </c>
-      <c r="F43" s="32" t="s">
+      <c r="F43" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="G43" s="41" t="s">
+      <c r="G43" s="42" t="s">
         <v>209</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -3759,18 +3777,18 @@
       <c r="I43" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="M43" s="23">
+      <c r="M43" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="5:17">
-      <c r="E44" s="29">
+      <c r="E44" s="30">
         <v>17</v>
       </c>
-      <c r="F44" s="30" t="s">
+      <c r="F44" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="G44" s="36" t="s">
+      <c r="G44" s="37" t="s">
         <v>212</v>
       </c>
       <c r="H44" s="1" t="s">
@@ -3784,13 +3802,13 @@
       </c>
     </row>
     <row r="45" spans="5:9">
-      <c r="E45" s="27">
+      <c r="E45" s="28">
         <v>17</v>
       </c>
-      <c r="F45" s="28" t="s">
+      <c r="F45" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="G45" s="36" t="s">
+      <c r="G45" s="37" t="s">
         <v>215</v>
       </c>
       <c r="H45" s="1" t="s">
@@ -3801,13 +3819,13 @@
       </c>
     </row>
     <row r="46" spans="5:16">
-      <c r="E46" s="16">
+      <c r="E46" s="17">
         <v>17</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G46" s="36" t="s">
+      <c r="G46" s="37" t="s">
         <v>218</v>
       </c>
       <c r="H46" s="1" t="s">
@@ -3821,13 +3839,13 @@
       </c>
     </row>
     <row r="47" spans="5:13">
-      <c r="E47" s="31">
+      <c r="E47" s="32">
         <v>18</v>
       </c>
-      <c r="F47" s="32" t="s">
+      <c r="F47" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="G47" s="36" t="s">
+      <c r="G47" s="37" t="s">
         <v>221</v>
       </c>
       <c r="H47" s="1" t="s">
@@ -3836,18 +3854,18 @@
       <c r="I47" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="M47" s="23">
+      <c r="M47" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="5:17">
-      <c r="E48" s="29">
+      <c r="E48" s="30">
         <v>18</v>
       </c>
-      <c r="F48" s="30" t="s">
+      <c r="F48" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="G48" s="36" t="s">
+      <c r="G48" s="37" t="s">
         <v>206</v>
       </c>
       <c r="H48" s="1" t="s">
@@ -3861,13 +3879,13 @@
       </c>
     </row>
     <row r="49" spans="5:17">
-      <c r="E49" s="29">
+      <c r="E49" s="30">
         <v>18</v>
       </c>
-      <c r="F49" s="30" t="s">
+      <c r="F49" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="38" t="s">
+      <c r="G49" s="39" t="s">
         <v>226</v>
       </c>
       <c r="H49" s="1" t="s">
@@ -3881,13 +3899,13 @@
       </c>
     </row>
     <row r="50" spans="5:9">
-      <c r="E50" s="27">
+      <c r="E50" s="28">
         <v>18</v>
       </c>
-      <c r="F50" s="28" t="s">
+      <c r="F50" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="G50" s="38" t="s">
+      <c r="G50" s="39" t="s">
         <v>229</v>
       </c>
       <c r="H50" s="1" t="s">
@@ -3904,7 +3922,7 @@
       <c r="F51" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G51" s="37" t="s">
+      <c r="G51" s="38" t="s">
         <v>232</v>
       </c>
       <c r="H51" s="1" t="s">
@@ -3915,13 +3933,13 @@
       </c>
     </row>
     <row r="52" spans="5:14">
-      <c r="E52" s="42">
+      <c r="E52" s="43">
         <v>18</v>
       </c>
-      <c r="F52" s="43" t="s">
+      <c r="F52" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="G52" s="36" t="s">
+      <c r="G52" s="37" t="s">
         <v>235</v>
       </c>
       <c r="H52" s="1" t="s">
@@ -3935,13 +3953,13 @@
       </c>
     </row>
     <row r="53" spans="5:12">
-      <c r="E53" s="33">
+      <c r="E53" s="34">
         <v>19</v>
       </c>
-      <c r="F53" s="34" t="s">
+      <c r="F53" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G53" s="35" t="s">
+      <c r="G53" s="36" t="s">
         <v>238</v>
       </c>
       <c r="H53" s="1" t="s">
@@ -3955,13 +3973,13 @@
       </c>
     </row>
     <row r="54" spans="5:16">
-      <c r="E54" s="16">
+      <c r="E54" s="17">
         <v>19</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="G54" s="37" t="s">
+      <c r="G54" s="38" t="s">
         <v>241</v>
       </c>
       <c r="H54" s="1" t="s">
@@ -3975,13 +3993,13 @@
       </c>
     </row>
     <row r="55" spans="5:14">
-      <c r="E55" s="27">
+      <c r="E55" s="28">
         <v>19</v>
       </c>
-      <c r="F55" s="28" t="s">
+      <c r="F55" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="G55" s="36" t="s">
+      <c r="G55" s="37" t="s">
         <v>44</v>
       </c>
       <c r="H55" s="1" t="s">
@@ -3995,13 +4013,13 @@
       </c>
     </row>
     <row r="56" spans="5:13">
-      <c r="E56" s="31">
+      <c r="E56" s="32">
         <v>19</v>
       </c>
-      <c r="F56" s="32" t="s">
+      <c r="F56" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="G56" s="41" t="s">
+      <c r="G56" s="42" t="s">
         <v>221</v>
       </c>
       <c r="H56" s="1" t="s">
@@ -4010,7 +4028,7 @@
       <c r="I56" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M56" s="23">
+      <c r="M56" s="24">
         <v>1</v>
       </c>
     </row>
@@ -4021,7 +4039,7 @@
       <c r="F57" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G57" s="37" t="s">
+      <c r="G57" s="38" t="s">
         <v>248</v>
       </c>
       <c r="H57" s="1" t="s">
@@ -4050,11 +4068,11 @@
       </c>
     </row>
     <row r="59" spans="5:7">
-      <c r="E59" s="18" t="s">
+      <c r="E59" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
     </row>
     <row r="60" spans="5:6">
       <c r="E60" s="6"/>
@@ -4078,8 +4096,8 @@
   <sheetPr/>
   <dimension ref="D1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4132,13 +4150,13 @@
       </c>
     </row>
     <row r="5" spans="5:9">
-      <c r="E5" s="19">
+      <c r="E5" s="20">
         <v>21</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="21" t="s">
         <v>258</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -4149,13 +4167,13 @@
       </c>
     </row>
     <row r="6" spans="5:9">
-      <c r="E6" s="19">
+      <c r="E6" s="20">
         <v>21</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="21" t="s">
         <v>261</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -4166,13 +4184,13 @@
       </c>
     </row>
     <row r="7" spans="5:9">
-      <c r="E7" s="19">
+      <c r="E7" s="20">
         <v>21</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="21" t="s">
         <v>264</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -4186,13 +4204,13 @@
       <c r="D8" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="20">
         <v>21</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="21" t="s">
         <v>267</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -4203,13 +4221,13 @@
       </c>
     </row>
     <row r="9" spans="5:9">
-      <c r="E9" s="19">
+      <c r="E9" s="20">
         <v>21</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="21" t="s">
         <v>270</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -4220,13 +4238,13 @@
       </c>
     </row>
     <row r="10" spans="5:9">
-      <c r="E10" s="19">
+      <c r="E10" s="20">
         <v>21</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="21" t="s">
         <v>273</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -4237,63 +4255,65 @@
       </c>
     </row>
     <row r="11" spans="5:9">
-      <c r="E11" s="19">
+      <c r="E11" s="20">
         <v>22</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="21" t="s">
+        <v>276</v>
+      </c>
       <c r="H11" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9">
+      <c r="E12" s="20">
+        <v>22</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9">
+      <c r="E13" s="20">
+        <v>22</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9">
+      <c r="E14" s="20">
+        <v>22</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>276</v>
-      </c>
-      <c r="I11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="5:9">
-      <c r="E12" s="19">
-        <v>22</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="5:9">
-      <c r="E13" s="19">
-        <v>22</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="I13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="14" spans="5:9">
-      <c r="E14" s="19">
-        <v>22</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>284</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>285</v>
@@ -4303,13 +4323,13 @@
       </c>
     </row>
     <row r="15" spans="5:9">
-      <c r="E15" s="19">
+      <c r="E15" s="20">
         <v>22</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="20"/>
+      <c r="G15" s="21"/>
       <c r="H15" s="1" t="s">
         <v>287</v>
       </c>
@@ -4318,13 +4338,13 @@
       </c>
     </row>
     <row r="16" spans="5:9">
-      <c r="E16" s="19">
+      <c r="E16" s="20">
         <v>22</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="21" t="s">
         <v>289</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -4335,13 +4355,13 @@
       </c>
     </row>
     <row r="17" spans="5:9">
-      <c r="E17" s="19">
+      <c r="E17" s="20">
         <v>23</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="21" t="s">
         <v>69</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -4352,13 +4372,13 @@
       </c>
     </row>
     <row r="18" spans="5:9">
-      <c r="E18" s="19">
+      <c r="E18" s="20">
         <v>23</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="21" t="s">
         <v>69</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -4369,13 +4389,13 @@
       </c>
     </row>
     <row r="19" spans="5:9">
-      <c r="E19" s="19">
+      <c r="E19" s="20">
         <v>23</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="21" t="s">
         <v>69</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -4386,13 +4406,13 @@
       </c>
     </row>
     <row r="20" spans="5:9">
-      <c r="E20" s="19">
+      <c r="E20" s="20">
         <v>23</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="21" t="s">
         <v>289</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -4403,13 +4423,15 @@
       </c>
     </row>
     <row r="21" spans="5:9">
-      <c r="E21" s="19">
+      <c r="E21" s="20">
         <v>23</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="G21" s="21"/>
+      <c r="G21" s="22" t="s">
+        <v>185</v>
+      </c>
       <c r="H21" s="1" t="s">
         <v>300</v>
       </c>
@@ -4418,174 +4440,176 @@
       </c>
     </row>
     <row r="22" spans="5:9">
-      <c r="E22" s="19">
+      <c r="E22" s="20">
         <v>23</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="G22" s="21"/>
+      <c r="G22" s="22" t="s">
+        <v>302</v>
+      </c>
       <c r="H22" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I22" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="5:13">
-      <c r="E23" s="19">
+      <c r="E23" s="20">
         <v>24</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="20" t="s">
-        <v>304</v>
+      <c r="G23" s="21" t="s">
+        <v>305</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I23" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J23" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K23" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L23" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M23" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="5:9">
-      <c r="E24" s="19">
+      <c r="E24" s="20">
         <v>24</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="G24" s="20" t="s">
-        <v>311</v>
+      <c r="G24" s="21" t="s">
+        <v>312</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I24" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="5:9">
-      <c r="E25" s="19">
+      <c r="E25" s="20">
         <v>24</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G25" s="20" t="s">
-        <v>314</v>
+      <c r="G25" s="21" t="s">
+        <v>315</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I25" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="5:9">
-      <c r="E26" s="19">
+      <c r="E26" s="20">
         <v>24</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="G26" s="20" t="s">
-        <v>317</v>
+      <c r="G26" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="5:9">
-      <c r="E27" s="19">
+      <c r="E27" s="20">
         <v>24</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="G27" s="20" t="s">
-        <v>320</v>
+      <c r="G27" s="21" t="s">
+        <v>321</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I27" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="5:9">
-      <c r="E28" s="19">
+      <c r="E28" s="20">
         <v>24</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="G28" s="20" t="s">
-        <v>323</v>
+      <c r="G28" s="21" t="s">
+        <v>324</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I28" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="5:9">
-      <c r="E29" s="19">
+      <c r="E29" s="20">
         <v>24</v>
       </c>
-      <c r="F29" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="G29" s="20" t="s">
+      <c r="F29" s="21" t="s">
         <v>327</v>
       </c>
+      <c r="G29" s="21" t="s">
+        <v>328</v>
+      </c>
       <c r="H29" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I29" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="5:9">
-      <c r="E30" s="19">
+      <c r="E30" s="20">
         <v>24</v>
       </c>
-      <c r="F30" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="G30" s="20" t="s">
+      <c r="F30" s="21" t="s">
         <v>331</v>
       </c>
+      <c r="G30" s="21" t="s">
+        <v>332</v>
+      </c>
       <c r="H30" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I30" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="5:7">
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" spans="5:6">
       <c r="E32" s="6"/>
@@ -4618,7 +4642,7 @@
   <dimension ref="D1:I16"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4632,14 +4656,14 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E1" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E2" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4662,7 +4686,7 @@
         <v>90</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I4" t="s">
         <v>257</v>
@@ -4670,115 +4694,115 @@
     </row>
     <row r="5" spans="5:9">
       <c r="E5" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>99</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="5:9">
       <c r="E6" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>103</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="5:9">
       <c r="E7" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>107</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="5:9">
       <c r="E8" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>110</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="5:9">
-      <c r="E9" s="2" t="s">
-        <v>350</v>
+      <c r="E9" s="15" t="s">
+        <v>351</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="5:9">
-      <c r="E10" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="E10" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>118</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="4:9">
-      <c r="D11" s="17" t="s">
-        <v>356</v>
+      <c r="D11" s="18" t="s">
+        <v>357</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>103</v>
@@ -4791,11 +4815,11 @@
       </c>
     </row>
     <row r="12" spans="5:7">
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="6:7">
       <c r="F13" s="6"/>
@@ -4845,7 +4869,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E1" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -4858,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H3" t="s">
         <v>257</v>
@@ -4869,24 +4893,24 @@
     </row>
     <row r="4" spans="5:8">
       <c r="E4" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="5:7">
       <c r="E5" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -4897,7 +4921,7 @@
     </row>
     <row r="7" spans="5:6">
       <c r="E7" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F7" s="9"/>
     </row>
@@ -4909,12 +4933,12 @@
     </row>
     <row r="10" spans="6:6">
       <c r="F10" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="6:6">
       <c r="F11" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="6:6">
@@ -4952,13 +4976,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E1" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -4967,16 +4991,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -4985,7 +5009,7 @@
         <v>78</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -5044,13 +5068,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E1" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -5059,16 +5083,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G4" s="1"/>
     </row>

--- a/PadControl/Assets/对接协议/设备对接(带指令).xlsx
+++ b/PadControl/Assets/对接协议/设备对接(带指令).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16845" windowHeight="9945" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="网络设备信息" sheetId="3" r:id="rId1"/>
@@ -17,25 +17,12 @@
     <sheet name="序厅LED大屏开关" sheetId="12" r:id="rId8"/>
     <sheet name="序厅电动门反馈协议" sheetId="13" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="391">
   <si>
     <t>名称</t>
   </si>
@@ -709,12 +696,18 @@
     <t>12 06 00 03 00 00</t>
   </si>
   <si>
+    <t>筑基手机插座</t>
+  </si>
+  <si>
     <t>12 06 00 04 00 01</t>
   </si>
   <si>
     <t>12 06 00 04 00 00</t>
   </si>
   <si>
+    <t>循迹云台插座</t>
+  </si>
+  <si>
     <t>筑基插座</t>
   </si>
   <si>
@@ -724,6 +717,9 @@
     <t>12 06 00 05 00 00</t>
   </si>
   <si>
+    <t>铸魂深空电视</t>
+  </si>
+  <si>
     <t>全息电视</t>
   </si>
   <si>
@@ -733,6 +729,9 @@
     <t>12 06 00 06 00 00</t>
   </si>
   <si>
+    <t>循迹投影1</t>
+  </si>
+  <si>
     <t>投影插座</t>
   </si>
   <si>
@@ -760,6 +759,9 @@
     <t>13 06 00 03 00 00</t>
   </si>
   <si>
+    <t>循迹投影2</t>
+  </si>
+  <si>
     <t>强策插座</t>
   </si>
   <si>
@@ -769,6 +771,9 @@
     <t>13 06 00 04 00 00</t>
   </si>
   <si>
+    <t>铸魂互动投影</t>
+  </si>
+  <si>
     <t>13 06 00 05 00 01</t>
   </si>
   <si>
@@ -898,6 +903,9 @@
     <t>16 06 00 06 00 00</t>
   </si>
   <si>
+    <t>安全墙插</t>
+  </si>
+  <si>
     <t>16 06 00 07 00 01</t>
   </si>
   <si>
@@ -913,18 +921,27 @@
     <t>16 06 00 08 00 00</t>
   </si>
   <si>
+    <t>汇盟插座1</t>
+  </si>
+  <si>
     <t>17 06 00 03 00 01</t>
   </si>
   <si>
     <t>17 06 00 03 00 00</t>
   </si>
   <si>
+    <t>汇盟插座</t>
+  </si>
+  <si>
     <t>17 06 00 04 00 01</t>
   </si>
   <si>
     <t>17 06 00 04 00 00</t>
   </si>
   <si>
+    <t>汇盟墙插</t>
+  </si>
+  <si>
     <t>17 06 00 05 00 01</t>
   </si>
   <si>
@@ -1091,6 +1108,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>强策</t>
     </r>
     <r>
@@ -1159,6 +1183,9 @@
     <t>投影仪协议参照A-3</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>序厅LED大屏</t>
   </si>
   <si>
@@ -1192,7 +1219,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1244,6 +1271,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1257,6 +1312,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1296,21 +1359,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1361,28 +1409,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1451,13 +1478,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1475,19 +1544,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1511,18 +1592,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1535,31 +1604,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1583,19 +1628,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1614,12 +1647,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1718,6 +1745,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1746,21 +1788,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1817,148 +1844,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2109,52 +2136,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2943,14 +2970,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E1:Q60"/>
+  <dimension ref="D1:Q60"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
     <col min="5" max="5" width="13.8166666666667" customWidth="1"/>
     <col min="6" max="6" width="19.1833333333333" customWidth="1"/>
     <col min="7" max="7" width="19.725" customWidth="1"/>
@@ -3858,7 +3887,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="5:17">
+    <row r="48" spans="4:17">
+      <c r="D48" t="s">
+        <v>224</v>
+      </c>
       <c r="E48" s="30">
         <v>18</v>
       </c>
@@ -3869,16 +3901,19 @@
         <v>206</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="5:17">
+    <row r="49" spans="4:17">
+      <c r="D49" t="s">
+        <v>227</v>
+      </c>
       <c r="E49" s="30">
         <v>18</v>
       </c>
@@ -3886,19 +3921,22 @@
         <v>107</v>
       </c>
       <c r="G49" s="39" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="5:9">
+    <row r="50" spans="4:9">
+      <c r="D50" t="s">
+        <v>231</v>
+      </c>
       <c r="E50" s="28">
         <v>18</v>
       </c>
@@ -3906,16 +3944,19 @@
         <v>110</v>
       </c>
       <c r="G50" s="39" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="51" spans="5:9">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9">
+      <c r="D51" t="s">
+        <v>235</v>
+      </c>
       <c r="E51" s="4">
         <v>18</v>
       </c>
@@ -3923,13 +3964,13 @@
         <v>114</v>
       </c>
       <c r="G51" s="38" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="5:14">
@@ -3940,13 +3981,13 @@
         <v>118</v>
       </c>
       <c r="G52" s="37" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3960,19 +4001,22 @@
         <v>99</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="5:16">
+    <row r="54" spans="4:16">
+      <c r="D54" t="s">
+        <v>245</v>
+      </c>
       <c r="E54" s="17">
         <v>19</v>
       </c>
@@ -3980,19 +4024,22 @@
         <v>103</v>
       </c>
       <c r="G54" s="38" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="P54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="5:14">
+    <row r="55" spans="4:14">
+      <c r="D55" t="s">
+        <v>249</v>
+      </c>
       <c r="E55" s="28">
         <v>19</v>
       </c>
@@ -4003,10 +4050,10 @@
         <v>44</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -4023,10 +4070,10 @@
         <v>221</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M56" s="24">
         <v>1</v>
@@ -4040,13 +4087,13 @@
         <v>114</v>
       </c>
       <c r="G57" s="38" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -4061,15 +4108,15 @@
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" s="19" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
@@ -4097,11 +4144,12 @@
   <dimension ref="D1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="14.3666666666667" customWidth="1"/>
     <col min="6" max="6" width="19.1833333333333" customWidth="1"/>
     <col min="7" max="7" width="19.725" customWidth="1"/>
@@ -4113,14 +4161,14 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E1" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E2" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4143,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="I4" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="5:9">
@@ -4157,13 +4205,13 @@
         <v>99</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="I5" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="5:9">
@@ -4174,13 +4222,13 @@
         <v>103</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="I6" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="5:9">
@@ -4191,13 +4239,13 @@
         <v>107</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="I7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="4:9">
@@ -4211,13 +4259,13 @@
         <v>110</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="I8" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="5:9">
@@ -4228,13 +4276,13 @@
         <v>114</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="I9" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="5:9">
@@ -4245,13 +4293,13 @@
         <v>118</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="I10" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="5:9">
@@ -4262,13 +4310,13 @@
         <v>99</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="I11" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="5:9">
@@ -4279,13 +4327,13 @@
         <v>103</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="I12" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="5:9">
@@ -4296,13 +4344,13 @@
         <v>107</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="I13" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="5:9">
@@ -4313,16 +4361,19 @@
         <v>110</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="I14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="15" spans="5:9">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9">
+      <c r="D15" t="s">
+        <v>293</v>
+      </c>
       <c r="E15" s="20">
         <v>22</v>
       </c>
@@ -4331,10 +4382,10 @@
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="1" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="I15" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="5:9">
@@ -4345,16 +4396,19 @@
         <v>118</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="I16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9">
+      <c r="D17" t="s">
+        <v>299</v>
+      </c>
       <c r="E17" s="20">
         <v>23</v>
       </c>
@@ -4365,13 +4419,16 @@
         <v>69</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="I17" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9">
+      <c r="D18" t="s">
+        <v>302</v>
+      </c>
       <c r="E18" s="20">
         <v>23</v>
       </c>
@@ -4382,13 +4439,16 @@
         <v>69</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="I18" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="19" spans="5:9">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9">
+      <c r="D19" t="s">
+        <v>305</v>
+      </c>
       <c r="E19" s="20">
         <v>23</v>
       </c>
@@ -4399,13 +4459,16 @@
         <v>69</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="I19" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="20" spans="5:9">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9">
+      <c r="D20" t="s">
+        <v>305</v>
+      </c>
       <c r="E20" s="20">
         <v>23</v>
       </c>
@@ -4413,13 +4476,13 @@
         <v>110</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="I20" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="5:9">
@@ -4433,10 +4496,10 @@
         <v>185</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="I21" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="5:9">
@@ -4447,13 +4510,13 @@
         <v>118</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="I22" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="5:13">
@@ -4464,25 +4527,25 @@
         <v>99</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="I23" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="J23" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="K23" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="L23" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="M23" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="5:9">
@@ -4493,13 +4556,13 @@
         <v>103</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="I24" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="5:9">
@@ -4510,13 +4573,13 @@
         <v>107</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="I25" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="5:9">
@@ -4527,13 +4590,13 @@
         <v>110</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="I26" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="5:9">
@@ -4544,13 +4607,13 @@
         <v>114</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="I27" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="5:9">
@@ -4561,13 +4624,13 @@
         <v>118</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="I28" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="5:9">
@@ -4575,16 +4638,16 @@
         <v>24</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="I29" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="5:9">
@@ -4592,21 +4655,21 @@
         <v>24</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="I30" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" s="23" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
@@ -4656,14 +4719,14 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E1" s="2" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E2" s="2" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4686,123 +4749,123 @@
         <v>90</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="I4" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="5:9">
       <c r="E5" s="13" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>99</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="I5" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="5:9">
       <c r="E6" s="2" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>103</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="I6" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="5:9">
       <c r="E7" s="2" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>107</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="I7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="5:9">
       <c r="E8" s="2" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>110</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="I8" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="5:9">
       <c r="E9" s="15" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="I9" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="5:9">
       <c r="E10" s="16" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>118</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="I10" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="4:9">
       <c r="D11" s="18" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>103</v>
@@ -4816,7 +4879,7 @@
     </row>
     <row r="12" spans="5:7">
       <c r="E12" s="19" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -4856,7 +4919,7 @@
   <dimension ref="E1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -4869,7 +4932,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E1" s="2" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -4882,35 +4945,35 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="H3" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="5:8">
       <c r="E4" s="2" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="H4" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="5:7">
       <c r="E5" s="2" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -4921,24 +4984,26 @@
     </row>
     <row r="7" spans="5:6">
       <c r="E7" s="8" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="6:6">
-      <c r="F8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="9" spans="6:6">
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="6:6">
       <c r="F10" s="6" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="6:6">
       <c r="F11" s="6" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="6:6">
@@ -4976,13 +5041,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E1" s="2" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E2" s="2" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -4991,16 +5056,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -5009,7 +5074,7 @@
         <v>78</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -5068,13 +5133,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E1" s="2" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E2" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -5083,16 +5148,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="G4" s="1"/>
     </row>

--- a/PadControl/Assets/对接协议/设备对接(带指令).xlsx
+++ b/PadControl/Assets/对接协议/设备对接(带指令).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="网络设备信息" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="393">
   <si>
     <t>名称</t>
   </si>
@@ -1214,6 +1214,12 @@
   </si>
   <si>
     <t>AA AA AA AA A1</t>
+  </si>
+  <si>
+    <t>翻转屏串口5</t>
+  </si>
+  <si>
+    <t>IP：192.168.3.9 端口：20005</t>
   </si>
 </sst>
 </file>
@@ -2972,7 +2978,7 @@
   <sheetPr/>
   <dimension ref="D1:Q60"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
@@ -4143,7 +4149,7 @@
   <sheetPr/>
   <dimension ref="D1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -5121,8 +5127,8 @@
   <sheetPr/>
   <dimension ref="E1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -5176,11 +5182,17 @@
     <row r="8" spans="6:6">
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="6:6">
+    <row r="9" spans="5:6">
+      <c r="E9" t="s">
+        <v>391</v>
+      </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="6:6">
-      <c r="F10" s="6"/>
+    <row r="10" spans="5:6">
+      <c r="E10" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="6:6">
       <c r="F11" s="6"/>
@@ -5189,9 +5201,10 @@
       <c r="F12" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>

--- a/PadControl/Assets/对接协议/设备对接(带指令).xlsx
+++ b/PadControl/Assets/对接协议/设备对接(带指令).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="网络设备信息" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="396">
   <si>
     <t>名称</t>
   </si>
@@ -244,6 +244,15 @@
   </si>
   <si>
     <t>192.168.3.29</t>
+  </si>
+  <si>
+    <t>筑基mp3</t>
+  </si>
+  <si>
+    <t>手机mp3播放</t>
+  </si>
+  <si>
+    <t>192.168.3.30</t>
   </si>
   <si>
     <t>IP：192.168.3.9 端口：20007</t>
@@ -2669,10 +2678,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E6:J21"/>
+  <dimension ref="E6:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2895,6 +2904,23 @@
       </c>
       <c r="J21" s="50">
         <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10">
+      <c r="F22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22">
+        <v>30</v>
+      </c>
+      <c r="J22">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2920,46 +2946,46 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E1" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="5:6">
       <c r="E2" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="5:6">
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="5:6">
       <c r="E4" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="5:6">
       <c r="E5" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="5:6">
       <c r="E6" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2996,7 +3022,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:14">
       <c r="E1" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3004,12 +3030,12 @@
         <v>68</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:14">
       <c r="E2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3017,12 +3043,12 @@
         <v>72</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="20" customHeight="1" spans="5:14">
       <c r="E3" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -3035,34 +3061,34 @@
     </row>
     <row r="4" spans="5:17">
       <c r="E4" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O4" t="s">
         <v>51</v>
@@ -3071,7 +3097,7 @@
         <v>54</v>
       </c>
       <c r="Q4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="5:16">
@@ -3079,16 +3105,16 @@
         <v>11</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -3099,16 +3125,16 @@
         <v>11</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -3119,14 +3145,14 @@
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="5:16">
@@ -3134,16 +3160,16 @@
         <v>11</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -3154,16 +3180,16 @@
         <v>11</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -3174,16 +3200,16 @@
         <v>11</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -3194,16 +3220,16 @@
         <v>12</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -3214,16 +3240,16 @@
         <v>12</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -3234,16 +3260,16 @@
         <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="5:9">
@@ -3251,16 +3277,16 @@
         <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="5:17">
@@ -3268,16 +3294,16 @@
         <v>12</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -3288,16 +3314,16 @@
         <v>12</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M16" s="24">
         <v>1</v>
@@ -3308,14 +3334,14 @@
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="5:15">
@@ -3323,16 +3349,16 @@
         <v>13</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -3343,16 +3369,16 @@
         <v>13</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -3363,16 +3389,16 @@
         <v>13</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -3383,16 +3409,16 @@
         <v>13</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M21" s="24">
         <v>1</v>
@@ -3403,16 +3429,16 @@
         <v>13</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M22" s="24">
         <v>1</v>
@@ -3423,16 +3449,16 @@
         <v>14</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -3443,16 +3469,16 @@
         <v>14</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -3463,16 +3489,16 @@
         <v>14</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="5:12">
@@ -3480,16 +3506,16 @@
         <v>14</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -3500,16 +3526,16 @@
         <v>14</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -3520,16 +3546,16 @@
         <v>14</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -3540,16 +3566,16 @@
         <v>15</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -3560,16 +3586,16 @@
         <v>15</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -3580,16 +3606,16 @@
         <v>15</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -3600,16 +3626,16 @@
         <v>15</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="5:9">
@@ -3617,16 +3643,16 @@
         <v>15</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="5:9">
@@ -3634,16 +3660,16 @@
         <v>15</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="5:11">
@@ -3651,16 +3677,16 @@
         <v>16</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G35" s="40" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -3671,16 +3697,16 @@
         <v>16</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -3691,14 +3717,14 @@
         <v>16</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G37" s="41"/>
       <c r="H37" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="5:11">
@@ -3706,16 +3732,16 @@
         <v>16</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G38" s="41" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -3726,16 +3752,16 @@
         <v>16</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G39" s="41" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -3746,14 +3772,14 @@
         <v>16</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G40" s="37"/>
       <c r="H40" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="5:11">
@@ -3761,16 +3787,16 @@
         <v>17</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G41" s="37" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -3781,16 +3807,16 @@
         <v>17</v>
       </c>
       <c r="F42" s="31" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G42" s="37" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q42">
         <v>1</v>
@@ -3801,16 +3827,16 @@
         <v>17</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G43" s="42" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M43" s="24">
         <v>1</v>
@@ -3821,16 +3847,16 @@
         <v>17</v>
       </c>
       <c r="F44" s="31" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G44" s="37" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q44">
         <v>1</v>
@@ -3841,16 +3867,16 @@
         <v>17</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G45" s="37" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="5:16">
@@ -3858,16 +3884,16 @@
         <v>17</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G46" s="37" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P46">
         <v>1</v>
@@ -3878,16 +3904,16 @@
         <v>18</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G47" s="37" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M47" s="24">
         <v>1</v>
@@ -3895,22 +3921,22 @@
     </row>
     <row r="48" spans="4:17">
       <c r="D48" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E48" s="30">
         <v>18</v>
       </c>
       <c r="F48" s="31" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G48" s="37" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -3918,22 +3944,22 @@
     </row>
     <row r="49" spans="4:17">
       <c r="D49" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E49" s="30">
         <v>18</v>
       </c>
       <c r="F49" s="31" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G49" s="39" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q49">
         <v>1</v>
@@ -3941,42 +3967,42 @@
     </row>
     <row r="50" spans="4:9">
       <c r="D50" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E50" s="28">
         <v>18</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G50" s="39" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="4:9">
       <c r="D51" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E51" s="4">
         <v>18</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G51" s="38" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52" spans="5:14">
@@ -3984,16 +4010,16 @@
         <v>18</v>
       </c>
       <c r="F52" s="44" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G52" s="37" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -4004,16 +4030,16 @@
         <v>19</v>
       </c>
       <c r="F53" s="35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -4021,22 +4047,22 @@
     </row>
     <row r="54" spans="4:16">
       <c r="D54" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E54" s="17">
         <v>19</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G54" s="38" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P54">
         <v>1</v>
@@ -4044,22 +4070,22 @@
     </row>
     <row r="55" spans="4:14">
       <c r="D55" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E55" s="28">
         <v>19</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G55" s="37" t="s">
         <v>44</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -4070,16 +4096,16 @@
         <v>19</v>
       </c>
       <c r="F56" s="33" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G56" s="42" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M56" s="24">
         <v>1</v>
@@ -4090,16 +4116,16 @@
         <v>19</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G57" s="38" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -4110,19 +4136,19 @@
         <v>19</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" s="19" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
@@ -4167,40 +4193,40 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E1" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E2" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E3" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="5:9">
       <c r="E4" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="I4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="5:9">
@@ -4208,16 +4234,16 @@
         <v>21</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="I5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="5:9">
@@ -4225,16 +4251,16 @@
         <v>21</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="I6" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="5:9">
@@ -4242,16 +4268,16 @@
         <v>21</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="4:9">
@@ -4262,16 +4288,16 @@
         <v>21</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I8" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="5:9">
@@ -4279,16 +4305,16 @@
         <v>21</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I9" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="5:9">
@@ -4296,16 +4322,16 @@
         <v>21</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="I10" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="5:9">
@@ -4313,16 +4339,16 @@
         <v>22</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I11" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="5:9">
@@ -4330,16 +4356,16 @@
         <v>22</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="5:9">
@@ -4347,16 +4373,16 @@
         <v>22</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="I13" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="5:9">
@@ -4364,34 +4390,34 @@
         <v>22</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="I14" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="4:9">
       <c r="D15" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E15" s="20">
         <v>22</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="I15" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="5:9">
@@ -4399,96 +4425,96 @@
         <v>22</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="I16" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="4:9">
       <c r="D17" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E17" s="20">
         <v>23</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G17" s="21" t="s">
         <v>69</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="I17" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="4:9">
       <c r="D18" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E18" s="20">
         <v>23</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G18" s="21" t="s">
         <v>69</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I18" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="4:9">
       <c r="D19" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E19" s="20">
         <v>23</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>69</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="I19" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="4:9">
       <c r="D20" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E20" s="20">
         <v>23</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="I20" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="5:9">
@@ -4496,16 +4522,16 @@
         <v>23</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="I21" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="5:9">
@@ -4513,16 +4539,16 @@
         <v>23</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="I22" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="5:13">
@@ -4530,28 +4556,28 @@
         <v>24</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="I23" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="J23" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K23" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L23" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M23" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="5:9">
@@ -4559,16 +4585,16 @@
         <v>24</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="I24" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="5:9">
@@ -4576,16 +4602,16 @@
         <v>24</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="I25" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="5:9">
@@ -4593,16 +4619,16 @@
         <v>24</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I26" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="5:9">
@@ -4610,16 +4636,16 @@
         <v>24</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="I27" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="5:9">
@@ -4627,16 +4653,16 @@
         <v>24</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="I28" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="5:9">
@@ -4644,16 +4670,16 @@
         <v>24</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="I29" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="5:9">
@@ -4661,21 +4687,21 @@
         <v>24</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="I30" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" s="23" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
@@ -4725,21 +4751,21 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E1" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E2" s="2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="20" customHeight="1" spans="5:7">
       <c r="E3" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
@@ -4749,143 +4775,143 @@
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="I4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="5:9">
       <c r="E5" s="13" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="I5" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="5:9">
       <c r="E6" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>349</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="I6" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="5:9">
       <c r="E7" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="I7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="5:9">
       <c r="E8" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="I8" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="5:9">
       <c r="E9" s="15" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="I9" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="5:9">
       <c r="E10" s="16" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="I10" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="4:9">
       <c r="D11" s="18" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" s="19" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -4938,7 +4964,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E1" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -4951,35 +4977,35 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="5:8">
       <c r="E4" s="2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H4" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="5:7">
       <c r="E5" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -4990,13 +5016,13 @@
     </row>
     <row r="7" spans="5:6">
       <c r="E7" s="8" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="6:6">
       <c r="F8" s="6" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="6:6">
@@ -5004,12 +5030,12 @@
     </row>
     <row r="10" spans="6:6">
       <c r="F10" s="6" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="6:6">
       <c r="F11" s="6" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="6:6">
@@ -5047,13 +5073,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E1" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E2" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -5062,25 +5088,25 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="5:7">
       <c r="E5" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -5127,7 +5153,7 @@
   <sheetPr/>
   <dimension ref="E1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -5139,13 +5165,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E1" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="5:6">
       <c r="E2" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -5154,16 +5180,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -5184,13 +5210,13 @@
     </row>
     <row r="9" spans="5:6">
       <c r="E9" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="5:6">
       <c r="E10" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F10" s="2"/>
     </row>
